--- a/mapping/mml_summary_mapping.xlsx
+++ b/mapping/mml_summary_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="8160"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="308">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -954,6 +954,102 @@
   </si>
   <si>
     <t>mmlSm:remarks</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-COMPOSITION.report.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start date/time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end date/time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-ACTION.procedure-outpatient_summary_mml.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Initial encounter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注2)Urgency</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注1)Start Date/Time, FinishDateTime</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*openEHR-EHR-CLUSTER.duration.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.problem_diagnosis.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.reason_for_encounter.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reason for Contact</t>
+  </si>
+  <si>
+    <t>Index condition</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.risk.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.exam.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.story.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-OBSERVATION.progress_note.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Progress notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.citation.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Synopsis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1043,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1177,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1450,7 +1552,9 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1484,8 +1588,12 @@
         <v>20</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>286</v>
+      </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
@@ -1503,7 +1611,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
@@ -1538,12 +1648,14 @@
         <v>15</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>208</v>
       </c>
@@ -1557,7 +1669,9 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
@@ -1595,7 +1709,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>289</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
@@ -1613,7 +1729,9 @@
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
@@ -2020,7 +2138,9 @@
         <v>15</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>293</v>
+      </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -2092,7 +2212,9 @@
         <v>15</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -2112,8 +2234,12 @@
         <v>9</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
     </row>
@@ -2132,8 +2258,12 @@
         <v>9</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>297</v>
+      </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
@@ -2152,8 +2282,12 @@
         <v>9</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="H43" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
@@ -2172,8 +2306,12 @@
         <v>9</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="4"/>
+      <c r="H44" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
@@ -2246,8 +2384,12 @@
         <v>20</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="4"/>
+      <c r="H48" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
@@ -2284,7 +2426,9 @@
         <v>15</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -2512,8 +2656,12 @@
         <v>9</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="4"/>
+      <c r="H62" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>

--- a/mapping/mml_summary_mapping.xlsx
+++ b/mapping/mml_summary_mapping.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="382">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -1236,20 +1237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外来サマリー</t>
-    <rPh sb="0" eb="2">
-      <t>ガイライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院サマリー</t>
-    <rPh sb="0" eb="2">
-      <t>タイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>openEHR-EHR-COMPOSITION.shared_health_summary.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1342,8 +1329,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-COMPOSITION.discharge_summary.v1</t>
-    <phoneticPr fontId="1"/>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]</t>
   </si>
 </sst>
 </file>
@@ -1806,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1819,20 +1821,15 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="26.25" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
@@ -1844,19 +1841,13 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1874,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1886,16 +1877,14 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1910,8 +1899,9 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1930,10 +1920,15 @@
       <c r="I6" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J6" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -1950,10 +1945,15 @@
       <c r="I7" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J7" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1970,8 +1970,9 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1990,8 +1991,9 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>208</v>
       </c>
@@ -2008,10 +2010,11 @@
       <c r="I10" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>210</v>
       </c>
@@ -2030,8 +2033,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -2050,8 +2054,9 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2068,10 +2073,11 @@
       <c r="I13" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>215</v>
       </c>
@@ -2086,10 +2092,11 @@
       <c r="F14" s="3"/>
       <c r="H14" s="12"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>217</v>
       </c>
@@ -2104,10 +2111,11 @@
       <c r="F15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>219</v>
       </c>
@@ -2119,15 +2127,12 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" t="s">
-        <v>358</v>
-      </c>
-      <c r="J16" s="12"/>
+        <v>356</v>
+      </c>
       <c r="K16" s="12"/>
-      <c r="L16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>71</v>
@@ -2139,15 +2144,12 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="I17" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="12"/>
+        <v>357</v>
+      </c>
       <c r="K17" s="12"/>
-      <c r="M17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -2160,10 +2162,10 @@
         <v>309</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -2176,10 +2178,10 @@
         <v>309</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -2192,10 +2194,10 @@
         <v>313</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
@@ -2208,10 +2210,10 @@
         <v>313</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>123</v>
@@ -2220,10 +2222,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>124</v>
@@ -2237,13 +2239,10 @@
       <c r="H23" t="s">
         <v>125</v>
       </c>
-      <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
@@ -2261,13 +2260,12 @@
       <c r="I24" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="12"/>
-      <c r="M24" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L24" s="12"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -2280,10 +2278,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>128</v>
@@ -2297,13 +2295,12 @@
       <c r="I26" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="12"/>
-      <c r="M26" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L26" s="12"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>130</v>
@@ -2317,13 +2314,10 @@
       <c r="I27" t="s">
         <v>317</v>
       </c>
-      <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="M27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>132</v>
@@ -2339,13 +2333,10 @@
       <c r="I28" t="s">
         <v>318</v>
       </c>
-      <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="M28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>134</v>
@@ -2359,13 +2350,10 @@
       <c r="I29" t="s">
         <v>319</v>
       </c>
-      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="M29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>136</v>
@@ -2381,13 +2369,10 @@
       <c r="I30" t="s">
         <v>320</v>
       </c>
-      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="M30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>138</v>
@@ -2403,13 +2388,12 @@
       <c r="I31" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="12"/>
-      <c r="M31" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L31" s="12"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>322</v>
@@ -2423,13 +2407,10 @@
       <c r="H32" t="s">
         <v>323</v>
       </c>
-      <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>141</v>
@@ -2445,13 +2426,12 @@
       <c r="I33" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="12"/>
-      <c r="M33" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L33" s="12"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
@@ -2469,13 +2449,12 @@
       <c r="I34" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="12"/>
-      <c r="M34" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L34" s="12"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
@@ -2489,11 +2468,12 @@
       </c>
       <c r="F35" s="3"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="12"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="12"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L35" s="12"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>71</v>
@@ -2509,13 +2489,12 @@
       <c r="I36" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="12"/>
-      <c r="M36" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L36" s="12"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="C37" s="3" t="s">
         <v>73</v>
@@ -2532,13 +2511,12 @@
       <c r="I37" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="12"/>
-      <c r="M37" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L37" s="12"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>75</v>
@@ -2550,10 +2528,10 @@
         <v>67</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="C39" s="3" t="s">
         <v>76</v>
@@ -2568,13 +2546,12 @@
       <c r="I39" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="12"/>
-      <c r="M39" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L39" s="12"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="C40" s="3" t="s">
         <v>78</v>
@@ -2591,13 +2568,12 @@
       <c r="I40" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J40" s="12"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="12"/>
-      <c r="M40" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L40" s="12"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>329</v>
@@ -2609,13 +2585,10 @@
       <c r="H41" t="s">
         <v>323</v>
       </c>
-      <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>330</v>
@@ -2631,13 +2604,12 @@
       <c r="I42" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J42" s="12"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="12"/>
-      <c r="M42" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L42" s="12"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
@@ -2655,13 +2627,12 @@
       <c r="I43" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J43" s="12"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="12"/>
-      <c r="M43" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L43" s="12"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
@@ -2675,11 +2646,12 @@
       </c>
       <c r="F44" s="3"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="12"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="12"/>
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L44" s="12"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>71</v>
@@ -2695,13 +2667,12 @@
       <c r="I45" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J45" s="12"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="12"/>
-      <c r="M45" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L45" s="12"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>73</v>
@@ -2718,13 +2689,12 @@
       <c r="I46" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J46" s="12"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="12"/>
-      <c r="M46" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L46" s="12"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="C47" s="3" t="s">
         <v>75</v>
@@ -2736,10 +2706,10 @@
         <v>67</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>76</v>
@@ -2754,13 +2724,12 @@
       <c r="I48" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="12"/>
-      <c r="M48" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L48" s="12"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="C49" s="3" t="s">
         <v>78</v>
@@ -2777,13 +2746,12 @@
       <c r="I49" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="12"/>
-      <c r="M49" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L49" s="12"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>333</v>
@@ -2797,13 +2765,10 @@
       <c r="H50" t="s">
         <v>334</v>
       </c>
-      <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>147</v>
@@ -2814,10 +2779,10 @@
         <v>15</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="J51" s="12"/>
       <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
@@ -2835,13 +2800,12 @@
       <c r="I52" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="J52" s="12"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="12"/>
-      <c r="M52" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L52" s="12"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
@@ -2859,13 +2823,12 @@
       <c r="I53" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="J53" s="12"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="12"/>
-      <c r="M53" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L53" s="12"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
@@ -2879,11 +2842,12 @@
       </c>
       <c r="F54" s="10"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="12"/>
-      <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L54" s="12"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="10" t="s">
         <v>154</v>
@@ -2899,13 +2863,10 @@
       <c r="I55" t="s">
         <v>337</v>
       </c>
-      <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="M55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="10" t="s">
         <v>156</v>
@@ -2921,13 +2882,10 @@
       <c r="I56" t="s">
         <v>338</v>
       </c>
-      <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="M56" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="10" t="s">
         <v>158</v>
@@ -2943,13 +2901,10 @@
       <c r="I57" t="s">
         <v>339</v>
       </c>
-      <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="M57" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="10" t="s">
         <v>160</v>
@@ -2965,13 +2920,10 @@
       <c r="I58" t="s">
         <v>340</v>
       </c>
-      <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="M58" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="10" t="s">
         <v>162</v>
@@ -2987,13 +2939,10 @@
       <c r="I59" t="s">
         <v>341</v>
       </c>
-      <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="M59" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="10" t="s">
         <v>164</v>
@@ -3009,13 +2958,10 @@
       <c r="I60" t="s">
         <v>342</v>
       </c>
-      <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="M60" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="10" t="s">
         <v>166</v>
@@ -3031,13 +2977,10 @@
       <c r="I61" t="s">
         <v>343</v>
       </c>
-      <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="M61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>168</v>
@@ -3051,13 +2994,10 @@
       <c r="H62" t="s">
         <v>344</v>
       </c>
-      <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>170</v>
@@ -3073,13 +3013,10 @@
       <c r="I63" t="s">
         <v>345</v>
       </c>
-      <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="M63" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>172</v>
@@ -3090,10 +3027,10 @@
         <v>9</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>173</v>
@@ -3107,13 +3044,10 @@
       <c r="H65" t="s">
         <v>344</v>
       </c>
-      <c r="J65" s="12"/>
       <c r="K65" s="12"/>
-      <c r="L65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
@@ -3131,13 +3065,12 @@
       <c r="I66" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="J66" s="12"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="12"/>
-      <c r="M66" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L66" s="12"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>177</v>
@@ -3153,13 +3086,10 @@
       <c r="I67" t="s">
         <v>347</v>
       </c>
-      <c r="J67" s="12"/>
       <c r="K67" s="12"/>
-      <c r="M67" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>179</v>
@@ -3175,13 +3105,12 @@
       <c r="I68" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J68" s="12"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="12"/>
-      <c r="M68" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L68" s="12"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -3197,13 +3126,10 @@
       <c r="I69" t="s">
         <v>349</v>
       </c>
-      <c r="J69" s="12"/>
       <c r="K69" s="12"/>
-      <c r="M69" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>182</v>
@@ -3219,13 +3145,10 @@
       <c r="I70" t="s">
         <v>350</v>
       </c>
-      <c r="J70" s="12"/>
       <c r="K70" s="12"/>
-      <c r="M70" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>183</v>
@@ -3241,13 +3164,10 @@
       <c r="I71" t="s">
         <v>351</v>
       </c>
-      <c r="J71" s="12"/>
       <c r="K71" s="12"/>
-      <c r="M71" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>185</v>
@@ -3263,13 +3183,10 @@
       <c r="I72" t="s">
         <v>352</v>
       </c>
-      <c r="J72" s="12"/>
       <c r="K72" s="12"/>
-      <c r="M72" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>186</v>
@@ -3285,13 +3202,12 @@
       <c r="I73" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J73" s="12"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="12"/>
-      <c r="M73" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L73" s="12"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>220</v>
       </c>
@@ -3305,21 +3221,17 @@
       </c>
       <c r="F74" s="3"/>
       <c r="H74" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="J74" s="12"/>
+        <v>359</v>
+      </c>
+      <c r="J74" s="4"/>
       <c r="K74" s="12"/>
-      <c r="L74" t="s">
-        <v>360</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L74" s="12"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>31</v>
       </c>
@@ -3333,13 +3245,14 @@
       </c>
       <c r="F75" s="3"/>
       <c r="H75" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
@@ -3353,13 +3266,14 @@
       </c>
       <c r="F76" s="3"/>
       <c r="H76" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="12"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="12"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>224</v>
       </c>
@@ -3371,13 +3285,14 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="H77" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>226</v>
       </c>
@@ -3391,13 +3306,14 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="H78" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
-    </row>
-    <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>227</v>
       </c>
@@ -3413,13 +3329,14 @@
       </c>
       <c r="F79" s="3"/>
       <c r="H79" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
@@ -3434,10 +3351,11 @@
       <c r="F80" s="3"/>
       <c r="H80" s="12"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="12"/>
+      <c r="J80" s="6"/>
       <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>229</v>
       </c>
@@ -3452,10 +3370,11 @@
       <c r="F81" s="3"/>
       <c r="H81" s="12"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="12"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="12"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>231</v>
       </c>
@@ -3467,12 +3386,12 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="H82" t="s">
-        <v>358</v>
-      </c>
-      <c r="J82" s="12"/>
+        <v>356</v>
+      </c>
       <c r="K82" s="12"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>71</v>
@@ -3484,12 +3403,12 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="I83" t="s">
-        <v>359</v>
-      </c>
-      <c r="J83" s="12"/>
+        <v>357</v>
+      </c>
       <c r="K83" s="12"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
@@ -3502,10 +3421,10 @@
         <v>309</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
@@ -3518,10 +3437,10 @@
         <v>309</v>
       </c>
       <c r="F85" s="3"/>
-      <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L85" s="12"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
@@ -3534,10 +3453,10 @@
         <v>313</v>
       </c>
       <c r="F86" s="3"/>
-      <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
@@ -3550,10 +3469,10 @@
         <v>313</v>
       </c>
       <c r="F87" s="3"/>
-      <c r="J87" s="12"/>
       <c r="K87" s="12"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>123</v>
@@ -3562,10 +3481,10 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>124</v>
@@ -3579,10 +3498,10 @@
       <c r="H89" t="s">
         <v>125</v>
       </c>
-      <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
@@ -3600,10 +3519,11 @@
       <c r="I90" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J90" s="12"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="12"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
@@ -3616,10 +3536,10 @@
         <v>20</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L91" s="12"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>128</v>
@@ -3633,10 +3553,11 @@
       <c r="I92" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J92" s="12"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="12"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>130</v>
@@ -3650,10 +3571,10 @@
       <c r="I93" t="s">
         <v>317</v>
       </c>
-      <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L93" s="12"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>132</v>
@@ -3669,10 +3590,10 @@
       <c r="I94" t="s">
         <v>318</v>
       </c>
-      <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L94" s="12"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>134</v>
@@ -3686,10 +3607,10 @@
       <c r="I95" t="s">
         <v>319</v>
       </c>
-      <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>136</v>
@@ -3705,10 +3626,10 @@
       <c r="I96" t="s">
         <v>320</v>
       </c>
-      <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L96" s="12"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>138</v>
@@ -3724,10 +3645,11 @@
       <c r="I97" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="J97" s="12"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="12"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L97" s="12"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>322</v>
@@ -3741,10 +3663,10 @@
       <c r="H98" t="s">
         <v>323</v>
       </c>
-      <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L98" s="12"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>141</v>
@@ -3760,10 +3682,11 @@
       <c r="I99" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J99" s="12"/>
+      <c r="J99" s="6"/>
       <c r="K99" s="12"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L99" s="12"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
@@ -3781,10 +3704,11 @@
       <c r="I100" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J100" s="12"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="12"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L100" s="12"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
@@ -3798,10 +3722,11 @@
       </c>
       <c r="F101" s="3"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="12"/>
+      <c r="J101" s="7"/>
       <c r="K101" s="12"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>71</v>
@@ -3817,10 +3742,11 @@
       <c r="I102" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J102" s="12"/>
+      <c r="J102" s="6"/>
       <c r="K102" s="12"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L102" s="12"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="C103" s="3" t="s">
         <v>73</v>
@@ -3837,10 +3763,11 @@
       <c r="I103" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J103" s="12"/>
+      <c r="J103" s="4"/>
       <c r="K103" s="12"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L103" s="12"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="C104" s="3" t="s">
         <v>75</v>
@@ -3852,10 +3779,10 @@
         <v>67</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="J104" s="12"/>
       <c r="K104" s="12"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L104" s="12"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="C105" s="3" t="s">
         <v>76</v>
@@ -3870,10 +3797,11 @@
       <c r="I105" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J105" s="12"/>
+      <c r="J105" s="4"/>
       <c r="K105" s="12"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L105" s="12"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="C106" s="3" t="s">
         <v>78</v>
@@ -3890,10 +3818,11 @@
       <c r="I106" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J106" s="12"/>
+      <c r="J106" s="4"/>
       <c r="K106" s="12"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>329</v>
@@ -3905,10 +3834,10 @@
       <c r="H107" t="s">
         <v>323</v>
       </c>
-      <c r="J107" s="12"/>
       <c r="K107" s="12"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>330</v>
@@ -3924,10 +3853,11 @@
       <c r="I108" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J108" s="12"/>
+      <c r="J108" s="6"/>
       <c r="K108" s="12"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3" t="s">
@@ -3945,10 +3875,11 @@
       <c r="I109" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J109" s="12"/>
+      <c r="J109" s="4"/>
       <c r="K109" s="12"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
@@ -3962,10 +3893,11 @@
       </c>
       <c r="F110" s="3"/>
       <c r="I110" s="7"/>
-      <c r="J110" s="12"/>
+      <c r="J110" s="7"/>
       <c r="K110" s="12"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>71</v>
@@ -3981,10 +3913,11 @@
       <c r="I111" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J111" s="12"/>
+      <c r="J111" s="6"/>
       <c r="K111" s="12"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L111" s="12"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="C112" s="3" t="s">
         <v>73</v>
@@ -4001,10 +3934,11 @@
       <c r="I112" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J112" s="12"/>
+      <c r="J112" s="4"/>
       <c r="K112" s="12"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L112" s="12"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="C113" s="3" t="s">
         <v>75</v>
@@ -4016,10 +3950,10 @@
         <v>67</v>
       </c>
       <c r="F113" s="3"/>
-      <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L113" s="12"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="C114" s="3" t="s">
         <v>76</v>
@@ -4034,10 +3968,11 @@
       <c r="I114" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J114" s="12"/>
+      <c r="J114" s="4"/>
       <c r="K114" s="12"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L114" s="12"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="C115" s="3" t="s">
         <v>78</v>
@@ -4054,10 +3989,11 @@
       <c r="I115" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J115" s="12"/>
+      <c r="J115" s="4"/>
       <c r="K115" s="12"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L115" s="12"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>333</v>
@@ -4071,10 +4007,10 @@
       <c r="H116" t="s">
         <v>334</v>
       </c>
-      <c r="J116" s="12"/>
       <c r="K116" s="12"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L116" s="12"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>147</v>
@@ -4085,10 +4021,10 @@
         <v>15</v>
       </c>
       <c r="F117" s="3"/>
-      <c r="J117" s="12"/>
       <c r="K117" s="12"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L117" s="12"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10" t="s">
@@ -4106,10 +4042,11 @@
       <c r="I118" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="J118" s="12"/>
+      <c r="J118" s="11"/>
       <c r="K118" s="12"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L118" s="12"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10" t="s">
@@ -4127,10 +4064,11 @@
       <c r="I119" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="J119" s="12"/>
+      <c r="J119" s="11"/>
       <c r="K119" s="12"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L119" s="12"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10" t="s">
@@ -4144,10 +4082,11 @@
       </c>
       <c r="F120" s="10"/>
       <c r="I120" s="11"/>
-      <c r="J120" s="12"/>
+      <c r="J120" s="11"/>
       <c r="K120" s="12"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L120" s="12"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="10" t="s">
         <v>154</v>
@@ -4163,10 +4102,10 @@
       <c r="I121" t="s">
         <v>337</v>
       </c>
-      <c r="J121" s="12"/>
       <c r="K121" s="12"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L121" s="12"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="10" t="s">
         <v>156</v>
@@ -4182,10 +4121,10 @@
       <c r="I122" t="s">
         <v>338</v>
       </c>
-      <c r="J122" s="12"/>
       <c r="K122" s="12"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L122" s="12"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="10" t="s">
         <v>158</v>
@@ -4201,10 +4140,10 @@
       <c r="I123" t="s">
         <v>339</v>
       </c>
-      <c r="J123" s="12"/>
       <c r="K123" s="12"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L123" s="12"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="10" t="s">
         <v>160</v>
@@ -4220,10 +4159,10 @@
       <c r="I124" t="s">
         <v>340</v>
       </c>
-      <c r="J124" s="12"/>
       <c r="K124" s="12"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L124" s="12"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="10" t="s">
         <v>162</v>
@@ -4239,10 +4178,10 @@
       <c r="I125" t="s">
         <v>341</v>
       </c>
-      <c r="J125" s="12"/>
       <c r="K125" s="12"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L125" s="12"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="10" t="s">
         <v>164</v>
@@ -4258,10 +4197,10 @@
       <c r="I126" t="s">
         <v>342</v>
       </c>
-      <c r="J126" s="12"/>
       <c r="K126" s="12"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L126" s="12"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="10" t="s">
         <v>166</v>
@@ -4277,10 +4216,10 @@
       <c r="I127" t="s">
         <v>343</v>
       </c>
-      <c r="J127" s="12"/>
       <c r="K127" s="12"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L127" s="12"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>168</v>
@@ -4294,10 +4233,10 @@
       <c r="H128" t="s">
         <v>344</v>
       </c>
-      <c r="J128" s="12"/>
       <c r="K128" s="12"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L128" s="12"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>170</v>
@@ -4313,10 +4252,10 @@
       <c r="I129" t="s">
         <v>345</v>
       </c>
-      <c r="J129" s="12"/>
       <c r="K129" s="12"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L129" s="12"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>172</v>
@@ -4327,10 +4266,10 @@
         <v>9</v>
       </c>
       <c r="F130" s="3"/>
-      <c r="J130" s="12"/>
       <c r="K130" s="12"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L130" s="12"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>173</v>
@@ -4344,10 +4283,10 @@
       <c r="H131" t="s">
         <v>344</v>
       </c>
-      <c r="J131" s="12"/>
       <c r="K131" s="12"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L131" s="12"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
@@ -4365,10 +4304,11 @@
       <c r="I132" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="J132" s="12"/>
+      <c r="J132" s="4"/>
       <c r="K132" s="12"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L132" s="12"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>177</v>
@@ -4384,10 +4324,10 @@
       <c r="I133" t="s">
         <v>347</v>
       </c>
-      <c r="J133" s="12"/>
       <c r="K133" s="12"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L133" s="12"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>179</v>
@@ -4403,10 +4343,11 @@
       <c r="I134" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J134" s="12"/>
+      <c r="J134" s="5"/>
       <c r="K134" s="12"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L134" s="12"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>181</v>
@@ -4422,10 +4363,10 @@
       <c r="I135" t="s">
         <v>349</v>
       </c>
-      <c r="J135" s="12"/>
       <c r="K135" s="12"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L135" s="12"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>182</v>
@@ -4441,10 +4382,10 @@
       <c r="I136" t="s">
         <v>350</v>
       </c>
-      <c r="J136" s="12"/>
       <c r="K136" s="12"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L136" s="12"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>183</v>
@@ -4460,10 +4401,10 @@
       <c r="I137" t="s">
         <v>351</v>
       </c>
-      <c r="J137" s="12"/>
       <c r="K137" s="12"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L137" s="12"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>185</v>
@@ -4479,10 +4420,10 @@
       <c r="I138" t="s">
         <v>352</v>
       </c>
-      <c r="J138" s="12"/>
       <c r="K138" s="12"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L138" s="12"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>186</v>
@@ -4498,10 +4439,11 @@
       <c r="I139" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J139" s="12"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="12"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L139" s="12"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>232</v>
       </c>
@@ -4514,10 +4456,11 @@
       <c r="F140" s="3"/>
       <c r="H140" s="12"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="12"/>
+      <c r="J140" s="6"/>
       <c r="K140" s="12"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L140" s="12"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>234</v>
       </c>
@@ -4532,10 +4475,11 @@
       <c r="F141" s="3"/>
       <c r="H141" s="12"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="12"/>
+      <c r="J141" s="4"/>
       <c r="K141" s="12"/>
-    </row>
-    <row r="142" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L141" s="12"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>235</v>
       </c>
@@ -4551,13 +4495,14 @@
       </c>
       <c r="F142" s="3"/>
       <c r="H142" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I142" s="12"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L142" s="12"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3" t="s">
@@ -4573,13 +4518,14 @@
         <v>97</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I143" s="4"/>
-      <c r="J143" s="12"/>
+      <c r="J143" s="4"/>
       <c r="K143" s="12"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L143" s="12"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>238</v>
       </c>
@@ -4594,10 +4540,11 @@
       <c r="F144" s="3"/>
       <c r="H144" s="12"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="12"/>
+      <c r="J144" s="4"/>
       <c r="K144" s="12"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L144" s="12"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>240</v>
       </c>
@@ -4609,12 +4556,12 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="H145" t="s">
-        <v>358</v>
-      </c>
-      <c r="J145" s="12"/>
+        <v>356</v>
+      </c>
       <c r="K145" s="12"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L145" s="12"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>71</v>
@@ -4626,12 +4573,12 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="I146" t="s">
-        <v>359</v>
-      </c>
-      <c r="J146" s="12"/>
+        <v>357</v>
+      </c>
       <c r="K146" s="12"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L146" s="12"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3" t="s">
@@ -4644,10 +4591,10 @@
         <v>309</v>
       </c>
       <c r="F147" s="3"/>
-      <c r="J147" s="12"/>
       <c r="K147" s="12"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L147" s="12"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3" t="s">
@@ -4660,10 +4607,10 @@
         <v>309</v>
       </c>
       <c r="F148" s="3"/>
-      <c r="J148" s="12"/>
       <c r="K148" s="12"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L148" s="12"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
@@ -4676,10 +4623,10 @@
         <v>313</v>
       </c>
       <c r="F149" s="3"/>
-      <c r="J149" s="12"/>
       <c r="K149" s="12"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L149" s="12"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3" t="s">
@@ -4692,10 +4639,10 @@
         <v>313</v>
       </c>
       <c r="F150" s="3"/>
-      <c r="J150" s="12"/>
       <c r="K150" s="12"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L150" s="12"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>123</v>
@@ -4704,10 +4651,10 @@
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
-      <c r="J151" s="12"/>
       <c r="K151" s="12"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L151" s="12"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
         <v>124</v>
@@ -4721,10 +4668,10 @@
       <c r="H152" t="s">
         <v>125</v>
       </c>
-      <c r="J152" s="12"/>
       <c r="K152" s="12"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L152" s="12"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
@@ -4742,10 +4689,11 @@
       <c r="I153" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J153" s="12"/>
+      <c r="J153" s="9"/>
       <c r="K153" s="12"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L153" s="12"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3" t="s">
@@ -4758,10 +4706,10 @@
         <v>20</v>
       </c>
       <c r="F154" s="3"/>
-      <c r="J154" s="12"/>
       <c r="K154" s="12"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L154" s="12"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>128</v>
@@ -4775,10 +4723,11 @@
       <c r="I155" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J155" s="12"/>
+      <c r="J155" s="4"/>
       <c r="K155" s="12"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L155" s="12"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>130</v>
@@ -4792,10 +4741,10 @@
       <c r="I156" t="s">
         <v>317</v>
       </c>
-      <c r="J156" s="12"/>
       <c r="K156" s="12"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L156" s="12"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>132</v>
@@ -4811,10 +4760,10 @@
       <c r="I157" t="s">
         <v>318</v>
       </c>
-      <c r="J157" s="12"/>
       <c r="K157" s="12"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L157" s="12"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>134</v>
@@ -4828,10 +4777,10 @@
       <c r="I158" t="s">
         <v>319</v>
       </c>
-      <c r="J158" s="12"/>
       <c r="K158" s="12"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L158" s="12"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>136</v>
@@ -4847,10 +4796,10 @@
       <c r="I159" t="s">
         <v>320</v>
       </c>
-      <c r="J159" s="12"/>
       <c r="K159" s="12"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L159" s="12"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>138</v>
@@ -4866,10 +4815,11 @@
       <c r="I160" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="J160" s="12"/>
+      <c r="J160" s="5"/>
       <c r="K160" s="12"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L160" s="12"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>322</v>
@@ -4883,10 +4833,10 @@
       <c r="H161" t="s">
         <v>323</v>
       </c>
-      <c r="J161" s="12"/>
       <c r="K161" s="12"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L161" s="12"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
         <v>141</v>
@@ -4902,10 +4852,11 @@
       <c r="I162" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J162" s="12"/>
+      <c r="J162" s="6"/>
       <c r="K162" s="12"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L162" s="12"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3" t="s">
@@ -4923,10 +4874,11 @@
       <c r="I163" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J163" s="12"/>
+      <c r="J163" s="4"/>
       <c r="K163" s="12"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L163" s="12"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
@@ -4940,10 +4892,11 @@
       </c>
       <c r="F164" s="3"/>
       <c r="I164" s="7"/>
-      <c r="J164" s="12"/>
+      <c r="J164" s="7"/>
       <c r="K164" s="12"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L164" s="12"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>71</v>
@@ -4959,10 +4912,11 @@
       <c r="I165" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J165" s="12"/>
+      <c r="J165" s="6"/>
       <c r="K165" s="12"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L165" s="12"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="C166" s="3" t="s">
         <v>73</v>
@@ -4979,10 +4933,11 @@
       <c r="I166" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J166" s="12"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="12"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L166" s="12"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" s="3"/>
       <c r="C167" s="3" t="s">
         <v>75</v>
@@ -4994,10 +4949,10 @@
         <v>67</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="J167" s="12"/>
       <c r="K167" s="12"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L167" s="12"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="C168" s="3" t="s">
         <v>76</v>
@@ -5012,10 +4967,11 @@
       <c r="I168" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J168" s="12"/>
+      <c r="J168" s="4"/>
       <c r="K168" s="12"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L168" s="12"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="C169" s="3" t="s">
         <v>78</v>
@@ -5032,10 +4988,11 @@
       <c r="I169" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J169" s="12"/>
+      <c r="J169" s="4"/>
       <c r="K169" s="12"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L169" s="12"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
         <v>329</v>
@@ -5047,10 +5004,10 @@
       <c r="H170" t="s">
         <v>323</v>
       </c>
-      <c r="J170" s="12"/>
       <c r="K170" s="12"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L170" s="12"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>330</v>
@@ -5066,10 +5023,11 @@
       <c r="I171" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J171" s="12"/>
+      <c r="J171" s="6"/>
       <c r="K171" s="12"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L171" s="12"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3" t="s">
@@ -5087,10 +5045,11 @@
       <c r="I172" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J172" s="12"/>
+      <c r="J172" s="4"/>
       <c r="K172" s="12"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L172" s="12"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3" t="s">
@@ -5104,10 +5063,11 @@
       </c>
       <c r="F173" s="3"/>
       <c r="I173" s="7"/>
-      <c r="J173" s="12"/>
+      <c r="J173" s="7"/>
       <c r="K173" s="12"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L173" s="12"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>71</v>
@@ -5123,10 +5083,11 @@
       <c r="I174" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J174" s="12"/>
+      <c r="J174" s="6"/>
       <c r="K174" s="12"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L174" s="12"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
       <c r="C175" s="3" t="s">
         <v>73</v>
@@ -5143,10 +5104,11 @@
       <c r="I175" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J175" s="12"/>
+      <c r="J175" s="4"/>
       <c r="K175" s="12"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L175" s="12"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="3"/>
       <c r="C176" s="3" t="s">
         <v>75</v>
@@ -5158,10 +5120,10 @@
         <v>67</v>
       </c>
       <c r="F176" s="3"/>
-      <c r="J176" s="12"/>
       <c r="K176" s="12"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L176" s="12"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="C177" s="3" t="s">
         <v>76</v>
@@ -5176,10 +5138,11 @@
       <c r="I177" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J177" s="12"/>
+      <c r="J177" s="4"/>
       <c r="K177" s="12"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L177" s="12"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
       <c r="C178" s="3" t="s">
         <v>78</v>
@@ -5196,10 +5159,11 @@
       <c r="I178" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J178" s="12"/>
+      <c r="J178" s="4"/>
       <c r="K178" s="12"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L178" s="12"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>333</v>
@@ -5213,10 +5177,10 @@
       <c r="H179" t="s">
         <v>334</v>
       </c>
-      <c r="J179" s="12"/>
       <c r="K179" s="12"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L179" s="12"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>147</v>
@@ -5227,10 +5191,10 @@
         <v>15</v>
       </c>
       <c r="F180" s="3"/>
-      <c r="J180" s="12"/>
       <c r="K180" s="12"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L180" s="12"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10" t="s">
@@ -5248,10 +5212,11 @@
       <c r="I181" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="J181" s="12"/>
+      <c r="J181" s="11"/>
       <c r="K181" s="12"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L181" s="12"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" s="3"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10" t="s">
@@ -5269,10 +5234,11 @@
       <c r="I182" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="J182" s="12"/>
+      <c r="J182" s="11"/>
       <c r="K182" s="12"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L182" s="12"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10" t="s">
@@ -5286,10 +5252,11 @@
       </c>
       <c r="F183" s="10"/>
       <c r="I183" s="11"/>
-      <c r="J183" s="12"/>
+      <c r="J183" s="11"/>
       <c r="K183" s="12"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L183" s="12"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
       <c r="B184" s="10" t="s">
         <v>154</v>
@@ -5305,10 +5272,10 @@
       <c r="I184" t="s">
         <v>337</v>
       </c>
-      <c r="J184" s="12"/>
       <c r="K184" s="12"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L184" s="12"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="3"/>
       <c r="B185" s="10" t="s">
         <v>156</v>
@@ -5324,10 +5291,10 @@
       <c r="I185" t="s">
         <v>338</v>
       </c>
-      <c r="J185" s="12"/>
       <c r="K185" s="12"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L185" s="12"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" s="3"/>
       <c r="B186" s="10" t="s">
         <v>158</v>
@@ -5343,10 +5310,10 @@
       <c r="I186" t="s">
         <v>339</v>
       </c>
-      <c r="J186" s="12"/>
       <c r="K186" s="12"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L186" s="12"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
       <c r="B187" s="10" t="s">
         <v>160</v>
@@ -5362,10 +5329,10 @@
       <c r="I187" t="s">
         <v>340</v>
       </c>
-      <c r="J187" s="12"/>
       <c r="K187" s="12"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L187" s="12"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="10" t="s">
         <v>162</v>
@@ -5381,10 +5348,10 @@
       <c r="I188" t="s">
         <v>341</v>
       </c>
-      <c r="J188" s="12"/>
       <c r="K188" s="12"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L188" s="12"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="3"/>
       <c r="B189" s="10" t="s">
         <v>164</v>
@@ -5400,10 +5367,10 @@
       <c r="I189" t="s">
         <v>342</v>
       </c>
-      <c r="J189" s="12"/>
       <c r="K189" s="12"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L189" s="12"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="3"/>
       <c r="B190" s="10" t="s">
         <v>166</v>
@@ -5419,10 +5386,10 @@
       <c r="I190" t="s">
         <v>343</v>
       </c>
-      <c r="J190" s="12"/>
       <c r="K190" s="12"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L190" s="12"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>168</v>
@@ -5436,10 +5403,10 @@
       <c r="H191" t="s">
         <v>344</v>
       </c>
-      <c r="J191" s="12"/>
       <c r="K191" s="12"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L191" s="12"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>170</v>
@@ -5455,10 +5422,10 @@
       <c r="I192" t="s">
         <v>345</v>
       </c>
-      <c r="J192" s="12"/>
       <c r="K192" s="12"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L192" s="12"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>172</v>
@@ -5469,10 +5436,10 @@
         <v>9</v>
       </c>
       <c r="F193" s="3"/>
-      <c r="J193" s="12"/>
       <c r="K193" s="12"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L193" s="12"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>173</v>
@@ -5486,10 +5453,10 @@
       <c r="H194" t="s">
         <v>344</v>
       </c>
-      <c r="J194" s="12"/>
       <c r="K194" s="12"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L194" s="12"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
@@ -5507,10 +5474,11 @@
       <c r="I195" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="J195" s="12"/>
+      <c r="J195" s="4"/>
       <c r="K195" s="12"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L195" s="12"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
         <v>177</v>
@@ -5526,10 +5494,10 @@
       <c r="I196" t="s">
         <v>347</v>
       </c>
-      <c r="J196" s="12"/>
       <c r="K196" s="12"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L196" s="12"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
         <v>179</v>
@@ -5545,10 +5513,11 @@
       <c r="I197" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J197" s="12"/>
+      <c r="J197" s="5"/>
       <c r="K197" s="12"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L197" s="12"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>181</v>
@@ -5564,10 +5533,10 @@
       <c r="I198" t="s">
         <v>349</v>
       </c>
-      <c r="J198" s="12"/>
       <c r="K198" s="12"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L198" s="12"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>182</v>
@@ -5583,10 +5552,10 @@
       <c r="I199" t="s">
         <v>350</v>
       </c>
-      <c r="J199" s="12"/>
       <c r="K199" s="12"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L199" s="12"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
         <v>183</v>
@@ -5602,10 +5571,10 @@
       <c r="I200" t="s">
         <v>351</v>
       </c>
-      <c r="J200" s="12"/>
       <c r="K200" s="12"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L200" s="12"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
         <v>185</v>
@@ -5621,10 +5590,10 @@
       <c r="I201" t="s">
         <v>352</v>
       </c>
-      <c r="J201" s="12"/>
       <c r="K201" s="12"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L201" s="12"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>186</v>
@@ -5640,10 +5609,11 @@
       <c r="I202" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J202" s="12"/>
+      <c r="J202" s="5"/>
       <c r="K202" s="12"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L202" s="12"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
         <v>241</v>
       </c>
@@ -5660,8 +5630,9 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
       <c r="K203" s="12"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L203" s="12"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>242</v>
       </c>
@@ -5678,8 +5649,9 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
       <c r="K204" s="12"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L204" s="12"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
         <v>243</v>
       </c>
@@ -5691,12 +5663,12 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="H205" t="s">
-        <v>358</v>
-      </c>
-      <c r="J205" s="12"/>
+        <v>356</v>
+      </c>
       <c r="K205" s="12"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L205" s="12"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>71</v>
@@ -5708,12 +5680,12 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="I206" t="s">
-        <v>359</v>
-      </c>
-      <c r="J206" s="12"/>
+        <v>357</v>
+      </c>
       <c r="K206" s="12"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L206" s="12"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3" t="s">
@@ -5726,10 +5698,10 @@
         <v>309</v>
       </c>
       <c r="F207" s="3"/>
-      <c r="J207" s="12"/>
       <c r="K207" s="12"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L207" s="12"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3" t="s">
@@ -5742,10 +5714,10 @@
         <v>309</v>
       </c>
       <c r="F208" s="3"/>
-      <c r="J208" s="12"/>
       <c r="K208" s="12"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L208" s="12"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3" t="s">
@@ -5758,10 +5730,10 @@
         <v>313</v>
       </c>
       <c r="F209" s="3"/>
-      <c r="J209" s="12"/>
       <c r="K209" s="12"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L209" s="12"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3" t="s">
@@ -5774,10 +5746,10 @@
         <v>313</v>
       </c>
       <c r="F210" s="3"/>
-      <c r="J210" s="12"/>
       <c r="K210" s="12"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L210" s="12"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>123</v>
@@ -5786,10 +5758,10 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
-      <c r="J211" s="12"/>
       <c r="K211" s="12"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L211" s="12"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>124</v>
@@ -5803,10 +5775,10 @@
       <c r="H212" t="s">
         <v>125</v>
       </c>
-      <c r="J212" s="12"/>
       <c r="K212" s="12"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L212" s="12"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3" t="s">
@@ -5824,10 +5796,11 @@
       <c r="I213" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J213" s="12"/>
+      <c r="J213" s="9"/>
       <c r="K213" s="12"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L213" s="12"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3" t="s">
@@ -5840,10 +5813,10 @@
         <v>20</v>
       </c>
       <c r="F214" s="3"/>
-      <c r="J214" s="12"/>
       <c r="K214" s="12"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L214" s="12"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>128</v>
@@ -5857,10 +5830,11 @@
       <c r="I215" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J215" s="12"/>
+      <c r="J215" s="4"/>
       <c r="K215" s="12"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L215" s="12"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>130</v>
@@ -5874,10 +5848,10 @@
       <c r="I216" t="s">
         <v>317</v>
       </c>
-      <c r="J216" s="12"/>
       <c r="K216" s="12"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L216" s="12"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>132</v>
@@ -5893,10 +5867,10 @@
       <c r="I217" t="s">
         <v>318</v>
       </c>
-      <c r="J217" s="12"/>
       <c r="K217" s="12"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L217" s="12"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
         <v>134</v>
@@ -5910,10 +5884,10 @@
       <c r="I218" t="s">
         <v>319</v>
       </c>
-      <c r="J218" s="12"/>
       <c r="K218" s="12"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L218" s="12"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="3"/>
       <c r="B219" s="3" t="s">
         <v>136</v>
@@ -5929,10 +5903,10 @@
       <c r="I219" t="s">
         <v>320</v>
       </c>
-      <c r="J219" s="12"/>
       <c r="K219" s="12"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L219" s="12"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
         <v>138</v>
@@ -5948,10 +5922,11 @@
       <c r="I220" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="J220" s="12"/>
+      <c r="J220" s="5"/>
       <c r="K220" s="12"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L220" s="12"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
         <v>322</v>
@@ -5965,10 +5940,10 @@
       <c r="H221" t="s">
         <v>323</v>
       </c>
-      <c r="J221" s="12"/>
       <c r="K221" s="12"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L221" s="12"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>141</v>
@@ -5984,10 +5959,11 @@
       <c r="I222" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J222" s="12"/>
+      <c r="J222" s="6"/>
       <c r="K222" s="12"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L222" s="12"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3" t="s">
@@ -6005,10 +5981,11 @@
       <c r="I223" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J223" s="12"/>
+      <c r="J223" s="4"/>
       <c r="K223" s="12"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L223" s="12"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3" t="s">
@@ -6022,10 +5999,11 @@
       </c>
       <c r="F224" s="3"/>
       <c r="I224" s="7"/>
-      <c r="J224" s="12"/>
+      <c r="J224" s="7"/>
       <c r="K224" s="12"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L224" s="12"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
         <v>71</v>
@@ -6041,10 +6019,11 @@
       <c r="I225" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J225" s="12"/>
+      <c r="J225" s="6"/>
       <c r="K225" s="12"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L225" s="12"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="3"/>
       <c r="C226" s="3" t="s">
         <v>73</v>
@@ -6061,10 +6040,11 @@
       <c r="I226" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J226" s="12"/>
+      <c r="J226" s="4"/>
       <c r="K226" s="12"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L226" s="12"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="3"/>
       <c r="C227" s="3" t="s">
         <v>75</v>
@@ -6076,10 +6056,10 @@
         <v>67</v>
       </c>
       <c r="F227" s="3"/>
-      <c r="J227" s="12"/>
       <c r="K227" s="12"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L227" s="12"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="3"/>
       <c r="C228" s="3" t="s">
         <v>76</v>
@@ -6094,10 +6074,11 @@
       <c r="I228" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J228" s="12"/>
+      <c r="J228" s="4"/>
       <c r="K228" s="12"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L228" s="12"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="3"/>
       <c r="C229" s="3" t="s">
         <v>78</v>
@@ -6114,10 +6095,11 @@
       <c r="I229" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J229" s="12"/>
+      <c r="J229" s="4"/>
       <c r="K229" s="12"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L229" s="12"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
         <v>329</v>
@@ -6129,10 +6111,10 @@
       <c r="H230" t="s">
         <v>323</v>
       </c>
-      <c r="J230" s="12"/>
       <c r="K230" s="12"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L230" s="12"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>330</v>
@@ -6148,10 +6130,11 @@
       <c r="I231" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J231" s="12"/>
+      <c r="J231" s="6"/>
       <c r="K231" s="12"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L231" s="12"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3" t="s">
@@ -6169,10 +6152,11 @@
       <c r="I232" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J232" s="12"/>
+      <c r="J232" s="4"/>
       <c r="K232" s="12"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L232" s="12"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3" t="s">
@@ -6186,10 +6170,11 @@
       </c>
       <c r="F233" s="3"/>
       <c r="I233" s="7"/>
-      <c r="J233" s="12"/>
+      <c r="J233" s="7"/>
       <c r="K233" s="12"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L233" s="12"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>71</v>
@@ -6205,10 +6190,11 @@
       <c r="I234" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J234" s="12"/>
+      <c r="J234" s="6"/>
       <c r="K234" s="12"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L234" s="12"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" s="3"/>
       <c r="C235" s="3" t="s">
         <v>73</v>
@@ -6225,10 +6211,11 @@
       <c r="I235" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J235" s="12"/>
+      <c r="J235" s="4"/>
       <c r="K235" s="12"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L235" s="12"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" s="3"/>
       <c r="C236" s="3" t="s">
         <v>75</v>
@@ -6240,10 +6227,10 @@
         <v>67</v>
       </c>
       <c r="F236" s="3"/>
-      <c r="J236" s="12"/>
       <c r="K236" s="12"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L236" s="12"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" s="3"/>
       <c r="C237" s="3" t="s">
         <v>76</v>
@@ -6258,10 +6245,11 @@
       <c r="I237" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J237" s="12"/>
+      <c r="J237" s="4"/>
       <c r="K237" s="12"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L237" s="12"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" s="3"/>
       <c r="C238" s="3" t="s">
         <v>78</v>
@@ -6278,10 +6266,11 @@
       <c r="I238" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J238" s="12"/>
+      <c r="J238" s="4"/>
       <c r="K238" s="12"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L238" s="12"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
         <v>333</v>
@@ -6295,10 +6284,10 @@
       <c r="H239" t="s">
         <v>334</v>
       </c>
-      <c r="J239" s="12"/>
       <c r="K239" s="12"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L239" s="12"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
         <v>147</v>
@@ -6309,10 +6298,10 @@
         <v>15</v>
       </c>
       <c r="F240" s="3"/>
-      <c r="J240" s="12"/>
       <c r="K240" s="12"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L240" s="12"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A241" s="3"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10" t="s">
@@ -6330,10 +6319,11 @@
       <c r="I241" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="J241" s="12"/>
+      <c r="J241" s="11"/>
       <c r="K241" s="12"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L241" s="12"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A242" s="3"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10" t="s">
@@ -6351,10 +6341,11 @@
       <c r="I242" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="J242" s="12"/>
+      <c r="J242" s="11"/>
       <c r="K242" s="12"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L242" s="12"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" s="3"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10" t="s">
@@ -6368,10 +6359,11 @@
       </c>
       <c r="F243" s="10"/>
       <c r="I243" s="11"/>
-      <c r="J243" s="12"/>
+      <c r="J243" s="11"/>
       <c r="K243" s="12"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L243" s="12"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A244" s="3"/>
       <c r="B244" s="10" t="s">
         <v>154</v>
@@ -6387,10 +6379,10 @@
       <c r="I244" t="s">
         <v>337</v>
       </c>
-      <c r="J244" s="12"/>
       <c r="K244" s="12"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L244" s="12"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A245" s="3"/>
       <c r="B245" s="10" t="s">
         <v>156</v>
@@ -6406,10 +6398,10 @@
       <c r="I245" t="s">
         <v>338</v>
       </c>
-      <c r="J245" s="12"/>
       <c r="K245" s="12"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L245" s="12"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" s="3"/>
       <c r="B246" s="10" t="s">
         <v>158</v>
@@ -6425,10 +6417,10 @@
       <c r="I246" t="s">
         <v>339</v>
       </c>
-      <c r="J246" s="12"/>
       <c r="K246" s="12"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L246" s="12"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" s="3"/>
       <c r="B247" s="10" t="s">
         <v>160</v>
@@ -6444,10 +6436,10 @@
       <c r="I247" t="s">
         <v>340</v>
       </c>
-      <c r="J247" s="12"/>
       <c r="K247" s="12"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L247" s="12"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A248" s="3"/>
       <c r="B248" s="10" t="s">
         <v>162</v>
@@ -6463,10 +6455,10 @@
       <c r="I248" t="s">
         <v>341</v>
       </c>
-      <c r="J248" s="12"/>
       <c r="K248" s="12"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L248" s="12"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" s="3"/>
       <c r="B249" s="10" t="s">
         <v>164</v>
@@ -6482,10 +6474,10 @@
       <c r="I249" t="s">
         <v>342</v>
       </c>
-      <c r="J249" s="12"/>
       <c r="K249" s="12"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L249" s="12"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A250" s="3"/>
       <c r="B250" s="10" t="s">
         <v>166</v>
@@ -6501,10 +6493,10 @@
       <c r="I250" t="s">
         <v>343</v>
       </c>
-      <c r="J250" s="12"/>
       <c r="K250" s="12"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L250" s="12"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>168</v>
@@ -6518,10 +6510,10 @@
       <c r="H251" t="s">
         <v>344</v>
       </c>
-      <c r="J251" s="12"/>
       <c r="K251" s="12"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L251" s="12"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>170</v>
@@ -6537,10 +6529,10 @@
       <c r="I252" t="s">
         <v>345</v>
       </c>
-      <c r="J252" s="12"/>
       <c r="K252" s="12"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L252" s="12"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>172</v>
@@ -6551,10 +6543,10 @@
         <v>9</v>
       </c>
       <c r="F253" s="3"/>
-      <c r="J253" s="12"/>
       <c r="K253" s="12"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L253" s="12"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>173</v>
@@ -6568,10 +6560,10 @@
       <c r="H254" t="s">
         <v>344</v>
       </c>
-      <c r="J254" s="12"/>
       <c r="K254" s="12"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L254" s="12"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3" t="s">
@@ -6589,10 +6581,11 @@
       <c r="I255" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="J255" s="12"/>
+      <c r="J255" s="4"/>
       <c r="K255" s="12"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L255" s="12"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
         <v>177</v>
@@ -6608,10 +6601,10 @@
       <c r="I256" t="s">
         <v>347</v>
       </c>
-      <c r="J256" s="12"/>
       <c r="K256" s="12"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L256" s="12"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
         <v>179</v>
@@ -6627,10 +6620,11 @@
       <c r="I257" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J257" s="12"/>
+      <c r="J257" s="5"/>
       <c r="K257" s="12"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L257" s="12"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
         <v>181</v>
@@ -6646,10 +6640,10 @@
       <c r="I258" t="s">
         <v>349</v>
       </c>
-      <c r="J258" s="12"/>
       <c r="K258" s="12"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L258" s="12"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
         <v>182</v>
@@ -6665,10 +6659,10 @@
       <c r="I259" t="s">
         <v>350</v>
       </c>
-      <c r="J259" s="12"/>
       <c r="K259" s="12"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L259" s="12"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>183</v>
@@ -6684,10 +6678,10 @@
       <c r="I260" t="s">
         <v>351</v>
       </c>
-      <c r="J260" s="12"/>
       <c r="K260" s="12"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L260" s="12"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
         <v>185</v>
@@ -6703,10 +6697,10 @@
       <c r="I261" t="s">
         <v>352</v>
       </c>
-      <c r="J261" s="12"/>
       <c r="K261" s="12"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L261" s="12"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
         <v>186</v>
@@ -6722,10 +6716,11 @@
       <c r="I262" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J262" s="12"/>
+      <c r="J262" s="5"/>
       <c r="K262" s="12"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L262" s="12"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
         <v>244</v>
       </c>
@@ -6742,8 +6737,9 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
       <c r="K263" s="12"/>
-    </row>
-    <row r="264" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L263" s="12"/>
+    </row>
+    <row r="264" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
         <v>245</v>
       </c>
@@ -6755,12 +6751,12 @@
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="H264" t="s">
-        <v>363</v>
-      </c>
-      <c r="J264" s="12"/>
+        <v>361</v>
+      </c>
       <c r="K264" s="12"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L264" s="12"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A265" s="3"/>
       <c r="B265" s="16" t="s">
         <v>81</v>
@@ -6772,12 +6768,12 @@
       <c r="E265" s="16"/>
       <c r="F265" s="3"/>
       <c r="I265" t="s">
-        <v>364</v>
-      </c>
-      <c r="J265" s="12"/>
+        <v>362</v>
+      </c>
       <c r="K265" s="12"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L265" s="12"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A266" s="3"/>
       <c r="B266" s="16"/>
       <c r="C266" s="16" t="s">
@@ -6790,10 +6786,10 @@
         <v>20</v>
       </c>
       <c r="F266" s="3"/>
-      <c r="J266" s="12"/>
       <c r="K266" s="12"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L266" s="12"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A267" s="3"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16" t="s">
@@ -6806,10 +6802,10 @@
         <v>20</v>
       </c>
       <c r="F267" s="3"/>
-      <c r="J267" s="12"/>
       <c r="K267" s="12"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L267" s="12"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A268" s="3"/>
       <c r="B268" s="17" t="s">
         <v>85</v>
@@ -6820,10 +6816,10 @@
         <v>9</v>
       </c>
       <c r="F268" s="17"/>
-      <c r="J268" s="12"/>
       <c r="K268" s="12"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L268" s="12"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A269" s="3"/>
       <c r="B269" s="17" t="s">
         <v>86</v>
@@ -6834,10 +6830,10 @@
         <v>13</v>
       </c>
       <c r="F269" s="17"/>
-      <c r="J269" s="12"/>
       <c r="K269" s="12"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L269" s="12"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A270" s="3"/>
       <c r="B270" s="17" t="s">
         <v>87</v>
@@ -6849,12 +6845,12 @@
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
       <c r="I270" t="s">
-        <v>364</v>
-      </c>
-      <c r="J270" s="12"/>
+        <v>362</v>
+      </c>
       <c r="K270" s="12"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L270" s="12"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A271" s="3"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17" t="s">
@@ -6867,10 +6863,10 @@
         <v>20</v>
       </c>
       <c r="F271" s="17"/>
-      <c r="J271" s="12"/>
       <c r="K271" s="12"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L271" s="12"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A272" s="3"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17" t="s">
@@ -6883,10 +6879,10 @@
         <v>20</v>
       </c>
       <c r="F272" s="17"/>
-      <c r="J272" s="12"/>
       <c r="K272" s="12"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L272" s="12"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A273" s="3"/>
       <c r="B273" s="3" t="s">
         <v>88</v>
@@ -6897,10 +6893,10 @@
         <v>9</v>
       </c>
       <c r="F273" s="3"/>
-      <c r="J273" s="12"/>
       <c r="K273" s="12"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L273" s="12"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
         <v>89</v>
@@ -6916,12 +6912,13 @@
         <v>68</v>
       </c>
       <c r="I274" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J274" s="12"/>
+        <v>363</v>
+      </c>
+      <c r="J274" s="9"/>
       <c r="K274" s="12"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L274" s="12"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3" t="s">
@@ -6934,10 +6931,10 @@
         <v>67</v>
       </c>
       <c r="F275" s="3"/>
-      <c r="J275" s="12"/>
       <c r="K275" s="12"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L275" s="12"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
         <v>92</v>
@@ -6951,12 +6948,12 @@
       </c>
       <c r="F276" s="3"/>
       <c r="I276" t="s">
-        <v>366</v>
-      </c>
-      <c r="J276" s="12"/>
+        <v>364</v>
+      </c>
       <c r="K276" s="12"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L276" s="12"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
         <v>94</v>
@@ -6970,12 +6967,13 @@
       </c>
       <c r="F277" s="3"/>
       <c r="I277" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="J277" s="12"/>
+        <v>365</v>
+      </c>
+      <c r="J277" s="4"/>
       <c r="K277" s="12"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L277" s="12"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278" s="3"/>
       <c r="B278" s="3" t="s">
         <v>96</v>
@@ -6991,12 +6989,13 @@
         <v>97</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J278" s="12"/>
+        <v>366</v>
+      </c>
+      <c r="J278" s="4"/>
       <c r="K278" s="12"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L278" s="12"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A279" s="3"/>
       <c r="B279" s="3" t="s">
         <v>99</v>
@@ -7010,12 +7009,13 @@
       </c>
       <c r="F279" s="3"/>
       <c r="I279" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="J279" s="12"/>
+        <v>367</v>
+      </c>
+      <c r="J279" s="9"/>
       <c r="K279" s="12"/>
-    </row>
-    <row r="280" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L279" s="12"/>
+    </row>
+    <row r="280" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A280" s="3"/>
       <c r="B280" s="3" t="s">
         <v>101</v>
@@ -7026,10 +7026,10 @@
         <v>9</v>
       </c>
       <c r="F280" s="3"/>
-      <c r="J280" s="12"/>
       <c r="K280" s="12"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L280" s="12"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3" t="s">
@@ -7043,12 +7043,13 @@
       </c>
       <c r="F281" s="3"/>
       <c r="I281" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="J281" s="12"/>
+        <v>368</v>
+      </c>
+      <c r="J281" s="9"/>
       <c r="K281" s="12"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L281" s="12"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
         <v>246</v>
       </c>
@@ -7065,8 +7066,9 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
       <c r="K282" s="12"/>
-    </row>
-    <row r="283" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L282" s="12"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3" t="s">
@@ -7083,8 +7085,9 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
       <c r="K283" s="12"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L283" s="12"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3" t="s">
@@ -7101,8 +7104,9 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
       <c r="K284" s="12"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L284" s="12"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
         <v>250</v>
       </c>
@@ -7121,8 +7125,9 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
       <c r="K285" s="12"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L285" s="12"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
         <v>251</v>
       </c>
@@ -7143,10 +7148,11 @@
       <c r="I286" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="J286" s="12"/>
+      <c r="J286" s="4"/>
       <c r="K286" s="12"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L286" s="12"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
         <v>253</v>
       </c>
@@ -7169,8 +7175,9 @@
       </c>
       <c r="J287" s="12"/>
       <c r="K287" s="12"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L287" s="12"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
         <v>255</v>
       </c>
@@ -7191,10 +7198,11 @@
       <c r="I288" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J288" s="12"/>
+      <c r="J288" s="4"/>
       <c r="K288" s="12"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L288" s="12"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
         <v>257</v>
       </c>
@@ -7215,10 +7223,11 @@
       <c r="I289" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="J289" s="12"/>
+      <c r="J289" s="4"/>
       <c r="K289" s="12"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L289" s="12"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
         <v>259</v>
       </c>
@@ -7233,10 +7242,11 @@
       <c r="F290" s="3"/>
       <c r="H290" s="12"/>
       <c r="I290" s="4"/>
-      <c r="J290" s="12"/>
+      <c r="J290" s="4"/>
       <c r="K290" s="12"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L290" s="12"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A291" s="3" t="s">
         <v>260</v>
       </c>
@@ -7251,10 +7261,11 @@
       <c r="F291" s="3"/>
       <c r="H291" s="12"/>
       <c r="I291" s="4"/>
-      <c r="J291" s="12"/>
+      <c r="J291" s="4"/>
       <c r="K291" s="12"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L291" s="12"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
         <v>262</v>
       </c>
@@ -7275,10 +7286,11 @@
       <c r="I292" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="J292" s="12"/>
+      <c r="J292" s="4"/>
       <c r="K292" s="12"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L292" s="12"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3" t="s">
@@ -7292,12 +7304,13 @@
       </c>
       <c r="F293" s="3"/>
       <c r="I293" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J293" s="12"/>
+        <v>369</v>
+      </c>
+      <c r="J293" s="4"/>
       <c r="K293" s="12"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L293" s="12"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>264</v>
       </c>
@@ -7314,8 +7327,9 @@
       <c r="I294" s="12"/>
       <c r="J294" s="12"/>
       <c r="K294" s="12"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L294" s="12"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>265</v>
       </c>
@@ -7336,8 +7350,9 @@
       <c r="I295" s="12"/>
       <c r="J295" s="12"/>
       <c r="K295" s="12"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L295" s="12"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3" t="s">
@@ -7356,8 +7371,9 @@
       <c r="I296" s="12"/>
       <c r="J296" s="12"/>
       <c r="K296" s="12"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L296" s="12"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>269</v>
       </c>
@@ -7373,13 +7389,14 @@
       </c>
       <c r="F297" s="3"/>
       <c r="H297" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I297" s="12"/>
       <c r="J297" s="12"/>
       <c r="K297" s="12"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L297" s="12"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
         <v>271</v>
       </c>
@@ -7393,13 +7410,14 @@
       </c>
       <c r="F298" s="3"/>
       <c r="H298" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I298" s="12"/>
       <c r="J298" s="12"/>
       <c r="K298" s="12"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L298" s="12"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>272</v>
       </c>
@@ -7415,15 +7433,16 @@
       </c>
       <c r="F299" s="3"/>
       <c r="H299" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I299" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="J299" s="12"/>
+        <v>371</v>
+      </c>
+      <c r="J299" s="4"/>
       <c r="K299" s="12"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L299" s="12"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
         <v>274</v>
       </c>
@@ -7437,13 +7456,14 @@
       </c>
       <c r="F300" s="3"/>
       <c r="H300" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I300" s="12"/>
       <c r="J300" s="12"/>
       <c r="K300" s="12"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L300" s="12"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
         <v>275</v>
       </c>
@@ -7457,13 +7477,14 @@
       </c>
       <c r="F301" s="3"/>
       <c r="H301" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" s="12"/>
       <c r="K301" s="12"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L301" s="12"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>277</v>
       </c>
@@ -7480,12 +7501,13 @@
       <c r="F302" s="3"/>
       <c r="H302" s="12"/>
       <c r="I302" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J302" s="12"/>
       <c r="K302" s="12"/>
-    </row>
-    <row r="303" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L302" s="12"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3" t="s">
@@ -7500,12 +7522,13 @@
       <c r="F303" s="3"/>
       <c r="H303" s="12"/>
       <c r="I303" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J303" s="12"/>
       <c r="K303" s="12"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L303" s="12"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
         <v>279</v>
       </c>
@@ -7519,13 +7542,14 @@
       </c>
       <c r="F304" s="3"/>
       <c r="H304" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I304" s="12"/>
       <c r="J304" s="12"/>
       <c r="K304" s="12"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L304" s="12"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>280</v>
       </c>
@@ -7541,13 +7565,14 @@
       </c>
       <c r="F305" s="3"/>
       <c r="H305" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I305" s="12"/>
       <c r="J305" s="12"/>
       <c r="K305" s="12"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L305" s="12"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
         <v>282</v>
       </c>
@@ -7561,13 +7586,14 @@
       </c>
       <c r="F306" s="3"/>
       <c r="H306" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I306" s="12"/>
       <c r="J306" s="12"/>
       <c r="K306" s="12"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L306" s="12"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>283</v>
       </c>
@@ -7588,10 +7614,11 @@
       <c r="I307" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="J307" s="12"/>
+      <c r="J307" s="4"/>
       <c r="K307" s="12"/>
-    </row>
-    <row r="444" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="L307" s="12"/>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B444" s="3" t="s">
         <v>16</v>
       </c>
@@ -7601,7 +7628,7 @@
       <c r="F444" s="3"/>
       <c r="H444" s="4"/>
     </row>
-    <row r="445" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B445" s="3" t="s">
         <v>17</v>
       </c>
@@ -7612,7 +7639,7 @@
       </c>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B446" s="3" t="s">
         <v>18</v>
       </c>
@@ -7624,7 +7651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B447" s="3"/>
       <c r="C447" s="3" t="s">
         <v>19</v>
@@ -7641,8 +7668,9 @@
       <c r="I447" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="448" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J447" s="4"/>
+    </row>
+    <row r="448" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B448" s="3" t="s">
         <v>22</v>
       </c>
@@ -7655,8 +7683,9 @@
       <c r="I448" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="449" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J448" s="5"/>
+    </row>
+    <row r="449" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B449" s="3" t="s">
         <v>24</v>
       </c>
@@ -7671,8 +7700,9 @@
       <c r="I449" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="450" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J449" s="5"/>
+    </row>
+    <row r="450" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B450" s="3" t="s">
         <v>26</v>
       </c>
@@ -7687,8 +7717,9 @@
       <c r="I450" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="451" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J450" s="4"/>
+    </row>
+    <row r="451" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B451" s="3" t="s">
         <v>28</v>
       </c>
@@ -7699,7 +7730,7 @@
       </c>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B452" s="3" t="s">
         <v>29</v>
       </c>
@@ -7711,7 +7742,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="453" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B453" s="3" t="s">
         <v>64</v>
       </c>
@@ -7726,8 +7757,9 @@
       <c r="I453" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="454" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J453" s="6"/>
+    </row>
+    <row r="454" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B454" s="3"/>
       <c r="C454" s="3" t="s">
         <v>66</v>
@@ -7744,8 +7776,9 @@
       <c r="I454" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="455" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J454" s="4"/>
+    </row>
+    <row r="455" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B455" s="3"/>
       <c r="C455" s="3" t="s">
         <v>70</v>
@@ -7758,8 +7791,9 @@
       </c>
       <c r="F455" s="3"/>
       <c r="I455" s="7"/>
-    </row>
-    <row r="456" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J455" s="7"/>
+    </row>
+    <row r="456" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B456" s="3" t="s">
         <v>71</v>
       </c>
@@ -7774,8 +7808,9 @@
       <c r="I456" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="457" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J456" s="6"/>
+    </row>
+    <row r="457" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C457" s="3" t="s">
         <v>73</v>
       </c>
@@ -7791,8 +7826,9 @@
       <c r="I457" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="458" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J457" s="4"/>
+    </row>
+    <row r="458" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C458" s="3" t="s">
         <v>75</v>
       </c>
@@ -7804,7 +7840,7 @@
       </c>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C459" s="3" t="s">
         <v>76</v>
       </c>
@@ -7818,8 +7854,9 @@
       <c r="I459" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="460" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J459" s="4"/>
+    </row>
+    <row r="460" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C460" s="3" t="s">
         <v>78</v>
       </c>
@@ -7835,8 +7872,9 @@
       <c r="I460" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="461" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J460" s="4"/>
+    </row>
+    <row r="461" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B461" s="3" t="s">
         <v>30</v>
       </c>
@@ -7847,7 +7885,7 @@
       </c>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B462" s="3" t="s">
         <v>29</v>
       </c>
@@ -7859,7 +7897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="463" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B463" s="3"/>
       <c r="C463" s="3" t="s">
         <v>66</v>
@@ -7876,8 +7914,9 @@
       <c r="I463" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="464" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J463" s="6"/>
+    </row>
+    <row r="464" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B464" s="3"/>
       <c r="C464" s="3" t="s">
         <v>70</v>
@@ -7892,8 +7931,9 @@
       <c r="I464" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="465" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J464" s="4"/>
+    </row>
+    <row r="465" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B465" s="3" t="s">
         <v>71</v>
       </c>
@@ -7906,8 +7946,9 @@
       </c>
       <c r="F465" s="3"/>
       <c r="I465" s="7"/>
-    </row>
-    <row r="466" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J465" s="7"/>
+    </row>
+    <row r="466" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C466" s="3" t="s">
         <v>73</v>
       </c>
@@ -7923,8 +7964,9 @@
       <c r="I466" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="467" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J466" s="6"/>
+    </row>
+    <row r="467" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C467" s="3" t="s">
         <v>75</v>
       </c>
@@ -7938,8 +7980,9 @@
       <c r="I467" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="468" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J467" s="4"/>
+    </row>
+    <row r="468" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C468" s="3" t="s">
         <v>76</v>
       </c>
@@ -7951,7 +7994,7 @@
       </c>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B469" s="3"/>
       <c r="C469" s="3" t="s">
         <v>78</v>
@@ -7968,8 +8011,9 @@
       <c r="I469" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="470" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J469" s="4"/>
+    </row>
+    <row r="470" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B470" s="3" t="s">
         <v>32</v>
       </c>
@@ -7980,8 +8024,9 @@
       <c r="I470" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="471" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J470" s="4"/>
+    </row>
+    <row r="471" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B471" s="3" t="s">
         <v>34</v>
       </c>
@@ -7995,7 +8040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="472" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B472" s="3" t="s">
         <v>81</v>
       </c>
@@ -8009,7 +8054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="473" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B473" s="3"/>
       <c r="C473" s="3" t="s">
         <v>83</v>
@@ -8022,7 +8067,7 @@
       </c>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B474" s="3"/>
       <c r="C474" s="3" t="s">
         <v>84</v>
@@ -8035,7 +8080,7 @@
       </c>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B475" s="3" t="s">
         <v>85</v>
       </c>
@@ -8046,7 +8091,7 @@
       </c>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B476" s="3" t="s">
         <v>86</v>
       </c>
@@ -8057,7 +8102,7 @@
       </c>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B477" s="3" t="s">
         <v>87</v>
       </c>
@@ -8071,7 +8116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="478" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B478" s="3"/>
       <c r="C478" s="3" t="s">
         <v>83</v>
@@ -8084,7 +8129,7 @@
       </c>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B479" s="3"/>
       <c r="C479" s="3" t="s">
         <v>84</v>
@@ -8097,7 +8142,7 @@
       </c>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B480" s="3" t="s">
         <v>88</v>
       </c>
@@ -8108,7 +8153,7 @@
       </c>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B481" s="3" t="s">
         <v>89</v>
       </c>
@@ -8125,8 +8170,9 @@
       <c r="I481" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="482" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J481" s="4"/>
+    </row>
+    <row r="482" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B482" s="3"/>
       <c r="C482" s="3" t="s">
         <v>91</v>
@@ -8139,7 +8185,7 @@
       </c>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B483" s="3" t="s">
         <v>92</v>
       </c>
@@ -8155,7 +8201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="484" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B484" s="3" t="s">
         <v>94</v>
       </c>
@@ -8170,8 +8216,9 @@
       <c r="I484" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="485" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J484" s="4"/>
+    </row>
+    <row r="485" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B485" s="3" t="s">
         <v>96</v>
       </c>
@@ -8188,8 +8235,9 @@
       <c r="I485" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="486" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J485" s="4"/>
+    </row>
+    <row r="486" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B486" s="3" t="s">
         <v>99</v>
       </c>
@@ -8204,8 +8252,9 @@
       <c r="I486" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="487" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J486" s="4"/>
+    </row>
+    <row r="487" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B487" s="3" t="s">
         <v>101</v>
       </c>
@@ -8216,7 +8265,7 @@
       </c>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B488" s="3"/>
       <c r="C488" s="3" t="s">
         <v>102</v>
@@ -8231,8 +8280,9 @@
       <c r="I488" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="489" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J488" s="4"/>
+    </row>
+    <row r="489" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B489" s="3" t="s">
         <v>35</v>
       </c>
@@ -8241,7 +8291,7 @@
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B490" s="3" t="s">
         <v>36</v>
       </c>
@@ -8255,7 +8305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B491" s="3" t="s">
         <v>37</v>
       </c>
@@ -8269,7 +8319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="492" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B492" s="3"/>
       <c r="C492" s="3" t="s">
         <v>38</v>
@@ -8282,7 +8332,7 @@
       </c>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B493" s="3"/>
       <c r="C493" s="3" t="s">
         <v>39</v>
@@ -8295,7 +8345,7 @@
       </c>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B494" s="3" t="s">
         <v>40</v>
       </c>
@@ -8306,7 +8356,7 @@
       </c>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B495" s="3" t="s">
         <v>41</v>
       </c>
@@ -8320,7 +8370,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="496" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B496" s="3" t="s">
         <v>42</v>
       </c>
@@ -8334,7 +8384,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="497" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B497" s="3"/>
       <c r="C497" s="3" t="s">
         <v>38</v>
@@ -8347,7 +8397,7 @@
       </c>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B498" s="3"/>
       <c r="C498" s="3" t="s">
         <v>39</v>
@@ -8360,7 +8410,7 @@
       </c>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B499" s="3" t="s">
         <v>43</v>
       </c>
@@ -8379,7 +8429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="500" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B500" s="3" t="s">
         <v>44</v>
       </c>
@@ -8390,7 +8440,7 @@
       </c>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B501" s="3" t="s">
         <v>45</v>
       </c>
@@ -8401,7 +8451,7 @@
       </c>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B502" s="3"/>
       <c r="C502" s="3" t="s">
         <v>46</v>
@@ -8421,8 +8471,9 @@
       <c r="I502" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="503" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J502" s="4"/>
+    </row>
+    <row r="503" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B503" s="3"/>
       <c r="C503" s="3" t="s">
         <v>48</v>
@@ -8438,7 +8489,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="504" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B504" s="3" t="s">
         <v>50</v>
       </c>
@@ -8447,7 +8498,7 @@
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B505" s="3" t="s">
         <v>51</v>
       </c>
@@ -8459,7 +8510,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="506" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B506" s="3" t="s">
         <v>71</v>
       </c>
@@ -8473,7 +8524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="507" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B507" s="3"/>
       <c r="C507" s="3" t="s">
         <v>115</v>
@@ -8486,7 +8537,7 @@
       </c>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B508" s="3"/>
       <c r="C508" s="3" t="s">
         <v>118</v>
@@ -8499,7 +8550,7 @@
       </c>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B509" s="3"/>
       <c r="C509" s="3" t="s">
         <v>119</v>
@@ -8512,7 +8563,7 @@
       </c>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B510" s="3"/>
       <c r="C510" s="3" t="s">
         <v>122</v>
@@ -8525,7 +8576,7 @@
       </c>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B511" s="3" t="s">
         <v>123</v>
       </c>
@@ -8534,7 +8585,7 @@
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B512" s="3" t="s">
         <v>124</v>
       </c>
@@ -8548,7 +8599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="513" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B513" s="3"/>
       <c r="C513" s="3" t="s">
         <v>126</v>
@@ -8565,8 +8616,9 @@
       <c r="I513" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="514" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J513" s="9"/>
+    </row>
+    <row r="514" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B514" s="3"/>
       <c r="C514" s="3" t="s">
         <v>127</v>
@@ -8579,7 +8631,7 @@
       </c>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B515" s="3" t="s">
         <v>128</v>
       </c>
@@ -8592,8 +8644,9 @@
       <c r="I515" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="516" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J515" s="4"/>
+    </row>
+    <row r="516" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B516" s="3" t="s">
         <v>130</v>
       </c>
@@ -8607,7 +8660,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="517" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B517" s="3" t="s">
         <v>132</v>
       </c>
@@ -8623,7 +8676,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="518" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B518" s="3" t="s">
         <v>134</v>
       </c>
@@ -8637,7 +8690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="519" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B519" s="3" t="s">
         <v>136</v>
       </c>
@@ -8653,7 +8706,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="520" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B520" s="3" t="s">
         <v>138</v>
       </c>
@@ -8668,8 +8721,9 @@
       <c r="I520" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="521" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J520" s="5"/>
+    </row>
+    <row r="521" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B521" s="3" t="s">
         <v>140</v>
       </c>
@@ -8681,7 +8735,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="522" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B522" s="3" t="s">
         <v>141</v>
       </c>
@@ -8696,8 +8750,9 @@
       <c r="I522" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="523" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J522" s="6"/>
+    </row>
+    <row r="523" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B523" s="3"/>
       <c r="C523" s="3" t="s">
         <v>142</v>
@@ -8714,8 +8769,9 @@
       <c r="I523" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="524" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J523" s="4"/>
+    </row>
+    <row r="524" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B524" s="3"/>
       <c r="C524" s="3" t="s">
         <v>143</v>
@@ -8728,8 +8784,9 @@
       </c>
       <c r="F524" s="3"/>
       <c r="I524" s="7"/>
-    </row>
-    <row r="525" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J524" s="7"/>
+    </row>
+    <row r="525" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B525" s="3" t="s">
         <v>71</v>
       </c>
@@ -8744,8 +8801,9 @@
       <c r="I525" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="526" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J525" s="6"/>
+    </row>
+    <row r="526" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C526" s="3" t="s">
         <v>73</v>
       </c>
@@ -8761,8 +8819,9 @@
       <c r="I526" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="527" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J526" s="4"/>
+    </row>
+    <row r="527" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C527" s="3" t="s">
         <v>75</v>
       </c>
@@ -8774,7 +8833,7 @@
       </c>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C528" s="3" t="s">
         <v>76</v>
       </c>
@@ -8788,8 +8847,9 @@
       <c r="I528" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="529" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J528" s="4"/>
+    </row>
+    <row r="529" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C529" s="3" t="s">
         <v>78</v>
       </c>
@@ -8805,8 +8865,9 @@
       <c r="I529" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="530" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J529" s="4"/>
+    </row>
+    <row r="530" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B530" s="3" t="s">
         <v>144</v>
       </c>
@@ -8818,7 +8879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="531" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B531" s="3" t="s">
         <v>64</v>
       </c>
@@ -8833,8 +8894,9 @@
       <c r="I531" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="532" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J531" s="6"/>
+    </row>
+    <row r="532" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B532" s="3"/>
       <c r="C532" s="3" t="s">
         <v>66</v>
@@ -8851,8 +8913,9 @@
       <c r="I532" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="533" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J532" s="4"/>
+    </row>
+    <row r="533" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B533" s="3"/>
       <c r="C533" s="3" t="s">
         <v>70</v>
@@ -8865,8 +8928,9 @@
       </c>
       <c r="F533" s="3"/>
       <c r="I533" s="7"/>
-    </row>
-    <row r="534" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J533" s="7"/>
+    </row>
+    <row r="534" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B534" s="3" t="s">
         <v>71</v>
       </c>
@@ -8881,8 +8945,9 @@
       <c r="I534" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="535" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J534" s="6"/>
+    </row>
+    <row r="535" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C535" s="3" t="s">
         <v>73</v>
       </c>
@@ -8898,8 +8963,9 @@
       <c r="I535" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="536" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J535" s="4"/>
+    </row>
+    <row r="536" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C536" s="3" t="s">
         <v>75</v>
       </c>
@@ -8911,7 +8977,7 @@
       </c>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C537" s="3" t="s">
         <v>76</v>
       </c>
@@ -8925,8 +8991,9 @@
       <c r="I537" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="538" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J537" s="4"/>
+    </row>
+    <row r="538" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C538" s="3" t="s">
         <v>78</v>
       </c>
@@ -8942,8 +9009,9 @@
       <c r="I538" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="539" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J538" s="4"/>
+    </row>
+    <row r="539" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B539" s="3" t="s">
         <v>145</v>
       </c>
@@ -8957,7 +9025,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="540" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B540" s="3" t="s">
         <v>147</v>
       </c>
@@ -8968,7 +9036,7 @@
       </c>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B541" s="10"/>
       <c r="C541" s="10" t="s">
         <v>148</v>
@@ -8985,8 +9053,9 @@
       <c r="I541" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="542" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J541" s="11"/>
+    </row>
+    <row r="542" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B542" s="10"/>
       <c r="C542" s="10" t="s">
         <v>150</v>
@@ -9003,8 +9072,9 @@
       <c r="I542" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="543" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J542" s="11"/>
+    </row>
+    <row r="543" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B543" s="10"/>
       <c r="C543" s="10" t="s">
         <v>153</v>
@@ -9017,8 +9087,9 @@
       </c>
       <c r="F543" s="10"/>
       <c r="I543" s="11"/>
-    </row>
-    <row r="544" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J543" s="11"/>
+    </row>
+    <row r="544" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B544" s="10" t="s">
         <v>154</v>
       </c>
@@ -9034,7 +9105,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="545" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B545" s="10" t="s">
         <v>156</v>
       </c>
@@ -9050,7 +9121,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="546" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B546" s="10" t="s">
         <v>158</v>
       </c>
@@ -9066,7 +9137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="547" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B547" s="10" t="s">
         <v>160</v>
       </c>
@@ -9082,7 +9153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="548" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B548" s="10" t="s">
         <v>162</v>
       </c>
@@ -9098,7 +9169,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="549" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B549" s="10" t="s">
         <v>164</v>
       </c>
@@ -9114,7 +9185,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="550" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B550" s="10" t="s">
         <v>166</v>
       </c>
@@ -9130,7 +9201,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="551" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B551" s="3" t="s">
         <v>168</v>
       </c>
@@ -9144,7 +9215,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="552" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B552" s="3" t="s">
         <v>170</v>
       </c>
@@ -9160,7 +9231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="553" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B553" s="3" t="s">
         <v>172</v>
       </c>
@@ -9171,7 +9242,7 @@
       </c>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B554" s="3" t="s">
         <v>173</v>
       </c>
@@ -9185,7 +9256,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="555" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B555" s="3"/>
       <c r="C555" s="3" t="s">
         <v>174</v>
@@ -9202,8 +9273,9 @@
       <c r="I555" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="556" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J555" s="4"/>
+    </row>
+    <row r="556" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B556" s="3" t="s">
         <v>177</v>
       </c>
@@ -9219,7 +9291,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="557" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B557" s="3" t="s">
         <v>179</v>
       </c>
@@ -9234,8 +9306,9 @@
       <c r="I557" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="558" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J557" s="5"/>
+    </row>
+    <row r="558" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B558" s="3" t="s">
         <v>181</v>
       </c>
@@ -9251,7 +9324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="559" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B559" s="3" t="s">
         <v>182</v>
       </c>
@@ -9267,7 +9340,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="560" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B560" s="3" t="s">
         <v>183</v>
       </c>
@@ -9283,7 +9356,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="561" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="561" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B561" s="3" t="s">
         <v>185</v>
       </c>
@@ -9299,7 +9372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="562" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B562" s="3" t="s">
         <v>186</v>
       </c>
@@ -9314,8 +9387,9 @@
       <c r="I562" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="563" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J562" s="5"/>
+    </row>
+    <row r="563" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B563" s="3" t="s">
         <v>191</v>
       </c>
@@ -9333,8 +9407,9 @@
       <c r="I563" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="564" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J563" s="4"/>
+    </row>
+    <row r="564" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B564" s="3" t="s">
         <v>52</v>
       </c>
@@ -9345,7 +9420,7 @@
       </c>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="565" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B565" s="3" t="s">
         <v>42</v>
       </c>
@@ -9364,7 +9439,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="566" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="566" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B566" s="3"/>
       <c r="C566" s="3" t="s">
         <v>38</v>
@@ -9377,8 +9452,9 @@
       </c>
       <c r="F566" s="3"/>
       <c r="I566" s="4"/>
-    </row>
-    <row r="567" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J566" s="4"/>
+    </row>
+    <row r="567" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B567" s="3"/>
       <c r="C567" s="3" t="s">
         <v>39</v>
@@ -9391,7 +9467,7 @@
       </c>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="568" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B568" s="3" t="s">
         <v>53</v>
       </c>
@@ -9402,8 +9478,9 @@
       </c>
       <c r="F568" s="3"/>
       <c r="I568" s="12"/>
-    </row>
-    <row r="569" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J568" s="12"/>
+    </row>
+    <row r="569" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B569" s="3" t="s">
         <v>45</v>
       </c>
@@ -9417,7 +9494,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="570" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="570" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B570" s="3"/>
       <c r="C570" s="3" t="s">
         <v>46</v>
@@ -9437,8 +9514,9 @@
       <c r="I570" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="571" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J570" s="4"/>
+    </row>
+    <row r="571" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B571" s="3"/>
       <c r="C571" s="3" t="s">
         <v>48</v>
@@ -9454,7 +9532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="572" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="572" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B572" s="3" t="s">
         <v>50</v>
       </c>
@@ -9463,7 +9541,7 @@
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B573" s="3" t="s">
         <v>51</v>
       </c>
@@ -9475,8 +9553,9 @@
         <v>110</v>
       </c>
       <c r="I573" s="12"/>
-    </row>
-    <row r="574" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J573" s="12"/>
+    </row>
+    <row r="574" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B574" s="3" t="s">
         <v>71</v>
       </c>
@@ -9490,7 +9569,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="575" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B575" s="3"/>
       <c r="C575" s="3" t="s">
         <v>115</v>
@@ -9503,7 +9582,7 @@
       </c>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B576" s="3"/>
       <c r="C576" s="3" t="s">
         <v>118</v>
@@ -9516,7 +9595,7 @@
       </c>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="577" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B577" s="3"/>
       <c r="C577" s="3" t="s">
         <v>119</v>
@@ -9529,7 +9608,7 @@
       </c>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="578" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B578" s="3"/>
       <c r="C578" s="3" t="s">
         <v>122</v>
@@ -9542,7 +9621,7 @@
       </c>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="579" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B579" s="3" t="s">
         <v>123</v>
       </c>
@@ -9551,7 +9630,7 @@
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="580" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B580" s="3" t="s">
         <v>124</v>
       </c>
@@ -9565,7 +9644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="581" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="581" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B581" s="3"/>
       <c r="C581" s="3" t="s">
         <v>126</v>
@@ -9582,8 +9661,9 @@
       <c r="I581" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="582" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J581" s="9"/>
+    </row>
+    <row r="582" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B582" s="3"/>
       <c r="C582" s="3" t="s">
         <v>127</v>
@@ -9596,7 +9676,7 @@
       </c>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="583" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B583" s="3" t="s">
         <v>128</v>
       </c>
@@ -9609,8 +9689,9 @@
       <c r="I583" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="584" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J583" s="4"/>
+    </row>
+    <row r="584" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B584" s="3" t="s">
         <v>130</v>
       </c>
@@ -9624,7 +9705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="585" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="585" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B585" s="3" t="s">
         <v>132</v>
       </c>
@@ -9640,7 +9721,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="586" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="586" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B586" s="3" t="s">
         <v>134</v>
       </c>
@@ -9654,7 +9735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="587" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B587" s="3" t="s">
         <v>136</v>
       </c>
@@ -9670,7 +9751,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="588" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="588" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B588" s="3" t="s">
         <v>138</v>
       </c>
@@ -9685,8 +9766,9 @@
       <c r="I588" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="589" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J588" s="5"/>
+    </row>
+    <row r="589" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B589" s="3" t="s">
         <v>140</v>
       </c>
@@ -9698,7 +9780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="590" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="590" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B590" s="3" t="s">
         <v>141</v>
       </c>
@@ -9713,8 +9795,9 @@
       <c r="I590" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="591" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J590" s="6"/>
+    </row>
+    <row r="591" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B591" s="3"/>
       <c r="C591" s="3" t="s">
         <v>142</v>
@@ -9731,8 +9814,9 @@
       <c r="I591" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="592" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J591" s="4"/>
+    </row>
+    <row r="592" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B592" s="3"/>
       <c r="C592" s="3" t="s">
         <v>143</v>
@@ -9745,8 +9829,9 @@
       </c>
       <c r="F592" s="3"/>
       <c r="I592" s="7"/>
-    </row>
-    <row r="593" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J592" s="7"/>
+    </row>
+    <row r="593" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B593" s="3" t="s">
         <v>71</v>
       </c>
@@ -9761,8 +9846,9 @@
       <c r="I593" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="594" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J593" s="6"/>
+    </row>
+    <row r="594" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C594" s="3" t="s">
         <v>73</v>
       </c>
@@ -9778,8 +9864,9 @@
       <c r="I594" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="595" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J594" s="4"/>
+    </row>
+    <row r="595" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C595" s="3" t="s">
         <v>75</v>
       </c>
@@ -9791,7 +9878,7 @@
       </c>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C596" s="3" t="s">
         <v>76</v>
       </c>
@@ -9805,8 +9892,9 @@
       <c r="I596" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="597" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J596" s="4"/>
+    </row>
+    <row r="597" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C597" s="3" t="s">
         <v>78</v>
       </c>
@@ -9822,8 +9910,9 @@
       <c r="I597" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="598" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J597" s="4"/>
+    </row>
+    <row r="598" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B598" s="3" t="s">
         <v>144</v>
       </c>
@@ -9835,7 +9924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="599" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B599" s="3" t="s">
         <v>64</v>
       </c>
@@ -9850,8 +9939,9 @@
       <c r="I599" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="600" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J599" s="6"/>
+    </row>
+    <row r="600" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B600" s="3"/>
       <c r="C600" s="3" t="s">
         <v>66</v>
@@ -9868,8 +9958,9 @@
       <c r="I600" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="601" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J600" s="4"/>
+    </row>
+    <row r="601" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B601" s="3"/>
       <c r="C601" s="3" t="s">
         <v>70</v>
@@ -9882,8 +9973,9 @@
       </c>
       <c r="F601" s="3"/>
       <c r="I601" s="7"/>
-    </row>
-    <row r="602" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J601" s="7"/>
+    </row>
+    <row r="602" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B602" s="3" t="s">
         <v>71</v>
       </c>
@@ -9898,8 +9990,9 @@
       <c r="I602" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="603" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J602" s="6"/>
+    </row>
+    <row r="603" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C603" s="3" t="s">
         <v>73</v>
       </c>
@@ -9915,8 +10008,9 @@
       <c r="I603" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="604" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J603" s="4"/>
+    </row>
+    <row r="604" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C604" s="3" t="s">
         <v>75</v>
       </c>
@@ -9928,7 +10022,7 @@
       </c>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="605" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C605" s="3" t="s">
         <v>76</v>
       </c>
@@ -9942,8 +10036,9 @@
       <c r="I605" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="606" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J605" s="4"/>
+    </row>
+    <row r="606" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C606" s="3" t="s">
         <v>78</v>
       </c>
@@ -9959,8 +10054,9 @@
       <c r="I606" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="607" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J606" s="4"/>
+    </row>
+    <row r="607" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B607" s="3" t="s">
         <v>145</v>
       </c>
@@ -9974,7 +10070,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="608" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="608" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B608" s="3" t="s">
         <v>147</v>
       </c>
@@ -9985,7 +10081,7 @@
       </c>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="609" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B609" s="10"/>
       <c r="C609" s="10" t="s">
         <v>148</v>
@@ -10002,8 +10098,9 @@
       <c r="I609" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="610" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J609" s="11"/>
+    </row>
+    <row r="610" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B610" s="10"/>
       <c r="C610" s="10" t="s">
         <v>150</v>
@@ -10020,8 +10117,9 @@
       <c r="I610" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="611" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J610" s="11"/>
+    </row>
+    <row r="611" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B611" s="10"/>
       <c r="C611" s="10" t="s">
         <v>153</v>
@@ -10034,8 +10132,9 @@
       </c>
       <c r="F611" s="10"/>
       <c r="I611" s="11"/>
-    </row>
-    <row r="612" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J611" s="11"/>
+    </row>
+    <row r="612" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B612" s="10" t="s">
         <v>154</v>
       </c>
@@ -10051,7 +10150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="613" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="613" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B613" s="10" t="s">
         <v>156</v>
       </c>
@@ -10067,7 +10166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="614" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="614" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B614" s="10" t="s">
         <v>158</v>
       </c>
@@ -10083,7 +10182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="615" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="615" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B615" s="10" t="s">
         <v>160</v>
       </c>
@@ -10099,7 +10198,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="616" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="616" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B616" s="10" t="s">
         <v>162</v>
       </c>
@@ -10115,7 +10214,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="617" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="617" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B617" s="10" t="s">
         <v>164</v>
       </c>
@@ -10131,7 +10230,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="618" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="618" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B618" s="10" t="s">
         <v>166</v>
       </c>
@@ -10147,7 +10246,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="619" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="619" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B619" s="3" t="s">
         <v>168</v>
       </c>
@@ -10161,7 +10260,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="620" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="620" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B620" s="3" t="s">
         <v>170</v>
       </c>
@@ -10177,7 +10276,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="621" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="621" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B621" s="3" t="s">
         <v>172</v>
       </c>
@@ -10188,7 +10287,7 @@
       </c>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="622" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B622" s="3" t="s">
         <v>173</v>
       </c>
@@ -10202,7 +10301,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="623" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="623" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B623" s="3"/>
       <c r="C623" s="3" t="s">
         <v>174</v>
@@ -10219,8 +10318,9 @@
       <c r="I623" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="624" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J623" s="4"/>
+    </row>
+    <row r="624" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B624" s="3" t="s">
         <v>177</v>
       </c>
@@ -10236,7 +10336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="625" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="625" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B625" s="3" t="s">
         <v>179</v>
       </c>
@@ -10251,8 +10351,9 @@
       <c r="I625" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="626" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J625" s="5"/>
+    </row>
+    <row r="626" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B626" s="3" t="s">
         <v>181</v>
       </c>
@@ -10268,7 +10369,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="627" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="627" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B627" s="3" t="s">
         <v>182</v>
       </c>
@@ -10284,7 +10385,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="628" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="628" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B628" s="3" t="s">
         <v>183</v>
       </c>
@@ -10300,7 +10401,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="629" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="629" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B629" s="3" t="s">
         <v>185</v>
       </c>
@@ -10316,7 +10417,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="630" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="630" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B630" s="3" t="s">
         <v>186</v>
       </c>
@@ -10331,8 +10432,9 @@
       <c r="I630" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="631" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J630" s="5"/>
+    </row>
+    <row r="631" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B631" s="3" t="s">
         <v>191</v>
       </c>
@@ -10350,8 +10452,9 @@
       <c r="I631" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="632" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J631" s="4"/>
+    </row>
+    <row r="632" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B632" s="3" t="s">
         <v>55</v>
       </c>
@@ -10369,8 +10472,9 @@
       <c r="I632" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="633" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J632" s="4"/>
+    </row>
+    <row r="633" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B633" s="3" t="s">
         <v>56</v>
       </c>
@@ -10386,7 +10490,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="634" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="634" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B634" s="3" t="s">
         <v>57</v>
       </c>
@@ -10397,7 +10501,7 @@
       </c>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="635" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B635" s="3" t="s">
         <v>58</v>
       </c>
@@ -10414,7 +10518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="636" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="636" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B636" s="3" t="s">
         <v>59</v>
       </c>
@@ -10432,6 +10536,7 @@
       <c r="I636" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="J636" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_summary_mapping.xlsx
+++ b/mapping/mml_summary_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="728">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -2393,10 +2393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2723,6 +2719,14 @@
     <rPh sb="29" eb="31">
       <t>コテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/defining_code/code_string</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3258,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="I597" sqref="I597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3451,16 +3455,16 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>724</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>725</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -9129,10 +9133,10 @@
         <v>345</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="K271" s="12" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="L271" s="12"/>
     </row>
@@ -9156,7 +9160,7 @@
         <v>634</v>
       </c>
       <c r="K272" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L272" s="12"/>
     </row>
@@ -9180,7 +9184,7 @@
         <v>634</v>
       </c>
       <c r="K273" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L273" s="12"/>
     </row>
@@ -9204,7 +9208,7 @@
         <v>634</v>
       </c>
       <c r="K274" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L274" s="12"/>
     </row>
@@ -9228,7 +9232,7 @@
         <v>634</v>
       </c>
       <c r="K275" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L275" s="12"/>
     </row>
@@ -9252,7 +9256,7 @@
         <v>634</v>
       </c>
       <c r="K276" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L276" s="12"/>
     </row>
@@ -9276,7 +9280,7 @@
         <v>634</v>
       </c>
       <c r="K277" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L277" s="12"/>
     </row>
@@ -9300,7 +9304,7 @@
         <v>634</v>
       </c>
       <c r="K278" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L278" s="12"/>
     </row>
@@ -9358,7 +9362,7 @@
         <v>632</v>
       </c>
       <c r="K281" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L281" s="12"/>
     </row>
@@ -9376,7 +9380,7 @@
       </c>
       <c r="F282" s="3"/>
       <c r="K282" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L282" s="12"/>
     </row>
@@ -9394,7 +9398,7 @@
       </c>
       <c r="F283" s="3"/>
       <c r="K283" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L283" s="12"/>
     </row>
@@ -9409,7 +9413,7 @@
         <v>390</v>
       </c>
       <c r="K284" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L284" s="12"/>
     </row>
@@ -9523,10 +9527,10 @@
         <v>360</v>
       </c>
       <c r="J291" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K291" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L291" s="12"/>
     </row>
@@ -9544,7 +9548,7 @@
       </c>
       <c r="F292" s="3"/>
       <c r="K292" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L292" s="12"/>
     </row>
@@ -9565,10 +9569,10 @@
         <v>361</v>
       </c>
       <c r="J293" t="s">
+        <v>658</v>
+      </c>
+      <c r="K293" s="12" t="s">
         <v>659</v>
-      </c>
-      <c r="K293" s="12" t="s">
-        <v>660</v>
       </c>
       <c r="L293" s="12"/>
     </row>
@@ -9589,10 +9593,10 @@
         <v>362</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K294" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L294" s="12"/>
     </row>
@@ -9618,7 +9622,7 @@
         <v>643</v>
       </c>
       <c r="K295" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L295" s="12"/>
     </row>
@@ -9639,10 +9643,10 @@
         <v>364</v>
       </c>
       <c r="J296" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K296" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L296" s="12"/>
     </row>
@@ -9677,10 +9681,10 @@
         <v>365</v>
       </c>
       <c r="J298" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>664</v>
-      </c>
-      <c r="K298" s="12" t="s">
-        <v>665</v>
       </c>
       <c r="L298" s="12"/>
     </row>
@@ -9698,7 +9702,7 @@
       </c>
       <c r="F299" s="3"/>
       <c r="H299" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I299" s="12"/>
       <c r="J299" s="12"/>
@@ -9721,10 +9725,10 @@
       <c r="H300" s="12"/>
       <c r="I300" s="12"/>
       <c r="J300" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K300" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L300" s="12"/>
     </row>
@@ -9744,10 +9748,10 @@
       <c r="H301" s="12"/>
       <c r="I301" s="12"/>
       <c r="J301" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="K301" s="12" t="s">
         <v>668</v>
-      </c>
-      <c r="K301" s="12" t="s">
-        <v>669</v>
       </c>
       <c r="L301" s="12"/>
     </row>
@@ -9792,13 +9796,13 @@
         <v>292</v>
       </c>
       <c r="I303" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J303" s="4" t="s">
         <v>634</v>
       </c>
       <c r="K303" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L303" s="12"/>
     </row>
@@ -9827,7 +9831,7 @@
         <v>634</v>
       </c>
       <c r="K304" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L304" s="12"/>
     </row>
@@ -9856,7 +9860,7 @@
         <v>634</v>
       </c>
       <c r="K305" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L305" s="12"/>
     </row>
@@ -9885,7 +9889,7 @@
         <v>634</v>
       </c>
       <c r="K306" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L306" s="12"/>
     </row>
@@ -9903,7 +9907,7 @@
       </c>
       <c r="F307" s="3"/>
       <c r="H307" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
@@ -9914,7 +9918,7 @@
       <c r="A308" s="3"/>
       <c r="B308" s="21"/>
       <c r="C308" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>8</v>
@@ -9924,13 +9928,13 @@
       </c>
       <c r="F308" s="3"/>
       <c r="I308" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J308" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="K308" s="12" t="s">
         <v>686</v>
-      </c>
-      <c r="K308" s="12" t="s">
-        <v>687</v>
       </c>
       <c r="L308" s="12"/>
     </row>
@@ -9938,7 +9942,7 @@
       <c r="A309" s="3"/>
       <c r="B309" s="21"/>
       <c r="C309" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>8</v>
@@ -9951,10 +9955,10 @@
         <v>198</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K309" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L309" s="12"/>
     </row>
@@ -9962,7 +9966,7 @@
       <c r="A310" s="3"/>
       <c r="B310" s="23"/>
       <c r="C310" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>8</v>
@@ -9972,20 +9976,20 @@
       </c>
       <c r="F310" s="3"/>
       <c r="I310" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="J310" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="K310" s="12" t="s">
         <v>690</v>
-      </c>
-      <c r="J310" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="K310" s="12" t="s">
-        <v>691</v>
       </c>
       <c r="L310" s="12"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311" s="3"/>
       <c r="C311" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>8</v>
@@ -9995,13 +9999,13 @@
       </c>
       <c r="F311" s="3"/>
       <c r="I311" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J311" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K311" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L311" s="12"/>
     </row>
@@ -10046,10 +10050,10 @@
         <v>301</v>
       </c>
       <c r="J313" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="K313" s="12" t="s">
         <v>675</v>
-      </c>
-      <c r="K313" s="12" t="s">
-        <v>676</v>
       </c>
       <c r="L313" s="12"/>
     </row>
@@ -10070,10 +10074,10 @@
         <v>366</v>
       </c>
       <c r="J314" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="K314" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="K314" s="12" t="s">
-        <v>678</v>
       </c>
       <c r="L314" s="12"/>
     </row>
@@ -10091,7 +10095,7 @@
       </c>
       <c r="F315" s="3"/>
       <c r="H315" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="12"/>
@@ -10102,7 +10106,7 @@
       <c r="A316" s="3"/>
       <c r="B316" s="21"/>
       <c r="C316" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>8</v>
@@ -10112,13 +10116,13 @@
       </c>
       <c r="F316" s="3"/>
       <c r="I316" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J316" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K316" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L316" s="12"/>
     </row>
@@ -10126,7 +10130,7 @@
       <c r="A317" s="3"/>
       <c r="B317" s="21"/>
       <c r="C317" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>8</v>
@@ -10139,10 +10143,10 @@
         <v>198</v>
       </c>
       <c r="J317" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K317" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L317" s="12"/>
     </row>
@@ -10150,7 +10154,7 @@
       <c r="A318" s="3"/>
       <c r="B318" s="23"/>
       <c r="C318" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>8</v>
@@ -10160,13 +10164,13 @@
       </c>
       <c r="F318" s="3"/>
       <c r="I318" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J318" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K318" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L318" s="12"/>
     </row>
@@ -10174,7 +10178,7 @@
       <c r="A319" s="3"/>
       <c r="B319" s="22"/>
       <c r="C319" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>8</v>
@@ -10184,13 +10188,13 @@
       </c>
       <c r="F319" s="3"/>
       <c r="I319" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J319" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J319" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K319" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L319" s="12"/>
     </row>
@@ -10213,13 +10217,13 @@
         <v>302</v>
       </c>
       <c r="I320" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J320" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J320" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K320" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L320" s="12"/>
     </row>
@@ -10246,7 +10250,7 @@
         <v>634</v>
       </c>
       <c r="K321" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L321" s="12"/>
     </row>
@@ -10266,7 +10270,7 @@
       </c>
       <c r="F322" s="3"/>
       <c r="H322" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I322" s="4" t="s">
         <v>196</v>
@@ -10275,7 +10279,7 @@
         <v>634</v>
       </c>
       <c r="K322" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L322" s="12"/>
     </row>
@@ -10304,7 +10308,7 @@
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>8</v>
@@ -10315,13 +10319,13 @@
       <c r="F324" s="8"/>
       <c r="G324" s="19"/>
       <c r="I324" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J324" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K324" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L324" s="12"/>
     </row>
@@ -10329,7 +10333,7 @@
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>8</v>
@@ -10343,10 +10347,10 @@
         <v>198</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K325" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L325" s="12"/>
     </row>
@@ -10354,7 +10358,7 @@
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>8</v>
@@ -10365,13 +10369,13 @@
       <c r="F326" s="8"/>
       <c r="G326" s="19"/>
       <c r="I326" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J326" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K326" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L326" s="12"/>
     </row>
@@ -10379,7 +10383,7 @@
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>8</v>
@@ -10390,13 +10394,13 @@
       <c r="F327" s="8"/>
       <c r="G327" s="19"/>
       <c r="I327" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J327" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J327" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K327" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L327" s="12"/>
     </row>
@@ -10438,7 +10442,7 @@
         <v>634</v>
       </c>
       <c r="K329" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L329" s="12"/>
     </row>
@@ -10467,7 +10471,7 @@
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>8</v>
@@ -10478,20 +10482,20 @@
       <c r="F331" s="8"/>
       <c r="G331" s="19"/>
       <c r="I331" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J331" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K331" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>8</v>
@@ -10505,17 +10509,17 @@
         <v>198</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K332" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>8</v>
@@ -10526,20 +10530,20 @@
       <c r="F333" s="8"/>
       <c r="G333" s="19"/>
       <c r="I333" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K333" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>8</v>
@@ -10550,13 +10554,13 @@
       <c r="F334" s="8"/>
       <c r="G334" s="19"/>
       <c r="I334" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J334" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J334" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K334" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.15">
@@ -10603,7 +10607,7 @@
         <v>634</v>
       </c>
       <c r="K336" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L336" s="12"/>
     </row>
@@ -10622,13 +10626,13 @@
       <c r="F337" s="3"/>
       <c r="H337" s="12"/>
       <c r="I337" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J337" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K337" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L337" s="12"/>
     </row>
@@ -10657,7 +10661,7 @@
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>8</v>
@@ -10668,13 +10672,13 @@
       <c r="F339" s="8"/>
       <c r="G339" s="19"/>
       <c r="I339" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J339" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K339" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L339" s="12"/>
     </row>
@@ -10682,7 +10686,7 @@
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>8</v>
@@ -10696,10 +10700,10 @@
         <v>198</v>
       </c>
       <c r="J340" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K340" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L340" s="12"/>
     </row>
@@ -10707,7 +10711,7 @@
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>8</v>
@@ -10718,13 +10722,13 @@
       <c r="F341" s="8"/>
       <c r="G341" s="19"/>
       <c r="I341" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J341" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K341" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L341" s="12"/>
     </row>
@@ -10732,7 +10736,7 @@
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>8</v>
@@ -10743,13 +10747,13 @@
       <c r="F342" s="8"/>
       <c r="G342" s="19"/>
       <c r="I342" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J342" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J342" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K342" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L342" s="12"/>
     </row>
@@ -10778,7 +10782,7 @@
         <v>634</v>
       </c>
       <c r="K343" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L343" s="12"/>
     </row>
@@ -10807,7 +10811,7 @@
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>8</v>
@@ -10818,13 +10822,13 @@
       <c r="F345" s="8"/>
       <c r="G345" s="19"/>
       <c r="I345" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J345" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K345" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L345" s="12"/>
     </row>
@@ -10832,7 +10836,7 @@
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>8</v>
@@ -10846,10 +10850,10 @@
         <v>198</v>
       </c>
       <c r="J346" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K346" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L346" s="12"/>
     </row>
@@ -10857,7 +10861,7 @@
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>8</v>
@@ -10868,13 +10872,13 @@
       <c r="F347" s="8"/>
       <c r="G347" s="19"/>
       <c r="I347" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J347" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K347" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L347" s="12"/>
     </row>
@@ -10882,7 +10886,7 @@
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>8</v>
@@ -10893,13 +10897,13 @@
       <c r="F348" s="8"/>
       <c r="G348" s="19"/>
       <c r="I348" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="J348" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="J348" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="K348" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L348" s="12"/>
     </row>
@@ -10928,7 +10932,7 @@
         <v>634</v>
       </c>
       <c r="K349" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L349" s="12"/>
     </row>

--- a/mapping/mml_summary_mapping.xlsx
+++ b/mapping/mml_summary_mapping.xlsx
@@ -1596,10 +1596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0013]/items[openEHR-EHR-ACTION.procedure-outpatient_summary_mml.v1 and name/value='Procedure record for outpatient service for MML']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1788,10 +1784,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ADMIN_ENTRY.patient_discharge.v1 and name/value='Patient discharge']/data[at0001]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ADMIN_ENTRY.patient_discharge.v1 and name/value='Patient discharge']/data[at0001]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/mappings/target/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1972,10 +1964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ADMIN_ENTRY.patient_discharge.v1 and name/value='Patient discharge']/data[at0001]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2017,9 +2005,6 @@
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/target/defining_code/terminology_id/value</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/match</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.23]/magnitude</t>
   </si>
   <si>
@@ -2135,9 +2120,6 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/defining_code/code_string</t>
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
@@ -2258,9 +2240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/code_string</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2726,7 +2705,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/defining_code/code_string</t>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0013]/items[openEHR-EHR-ACTION.procedure-outpatient_summary_mml.v1 and name/value='Procedure record for outpatient service for MML']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ADMIN_ENTRY.patient_discharge.v1 and name/value='Patient discharge']/data[at0001]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/items[openEHR-EHR-ADMIN_ENTRY.patient_discharge.v1 and name/value='Patient discharge']/data[at0001]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.summary_outline.v1 and name/value='Summary outline MML']/items[at0014]/itemsopenEHR-EHR-ACTION.procedure.v1 and name/value='Admission']/protocol[at0053]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/mappings/match</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3262,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="I597" sqref="I597"/>
+    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3455,16 +3458,16 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -3682,7 +3685,7 @@
         <v>388</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L20" s="12"/>
     </row>
@@ -4485,7 +4488,7 @@
         <v>397</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L57" s="12"/>
       <c r="N57" s="11"/>
@@ -4716,7 +4719,7 @@
         <v>438</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L67" s="12"/>
     </row>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="F69" s="3"/>
       <c r="H69" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
@@ -4773,7 +4776,7 @@
         <v>439</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>440</v>
+        <v>721</v>
       </c>
       <c r="L70" s="12"/>
       <c r="N70" s="4"/>
@@ -4795,10 +4798,10 @@
         <v>346</v>
       </c>
       <c r="J71" t="s">
+        <v>440</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>442</v>
       </c>
       <c r="L71" s="12"/>
     </row>
@@ -4822,7 +4825,7 @@
         <v>438</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L72" s="12"/>
       <c r="N72" s="5"/>
@@ -4847,7 +4850,7 @@
         <v>438</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L73" s="12"/>
     </row>
@@ -4871,7 +4874,7 @@
         <v>438</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L74" s="12"/>
     </row>
@@ -4895,7 +4898,7 @@
         <v>438</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L75" s="12"/>
     </row>
@@ -4919,7 +4922,7 @@
         <v>438</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L76" s="12"/>
     </row>
@@ -4943,7 +4946,7 @@
         <v>438</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L77" s="12"/>
       <c r="N77" s="5"/>
@@ -4971,7 +4974,7 @@
         <v>438</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L78" s="12"/>
       <c r="N78" s="4"/>
@@ -5030,7 +5033,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="H81" s="12" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -5045,16 +5048,16 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="H82" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J82" s="12" t="s">
         <v>438</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L82" s="12"/>
     </row>
@@ -5073,13 +5076,13 @@
       <c r="F83" s="3"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L83" s="12"/>
     </row>
@@ -5099,16 +5102,16 @@
       </c>
       <c r="F84" s="3"/>
       <c r="H84" t="s">
+        <v>450</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>438</v>
       </c>
       <c r="K84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L84" s="12"/>
     </row>
@@ -5126,16 +5129,16 @@
       </c>
       <c r="F85" s="3"/>
       <c r="H85" s="12" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>438</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L85" s="12"/>
     </row>
@@ -5187,13 +5190,13 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="I88" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L88" s="12"/>
     </row>
@@ -5211,13 +5214,13 @@
       </c>
       <c r="F89" s="3"/>
       <c r="I89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L89" s="12"/>
     </row>
@@ -5235,7 +5238,7 @@
       </c>
       <c r="F90" s="3"/>
       <c r="K90" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L90" s="12"/>
     </row>
@@ -5250,7 +5253,7 @@
         <v>390</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>540</v>
+        <v>727</v>
       </c>
       <c r="L91" s="12"/>
     </row>
@@ -5268,13 +5271,13 @@
       </c>
       <c r="F92" s="3"/>
       <c r="I92" t="s">
+        <v>461</v>
+      </c>
+      <c r="J92" t="s">
         <v>462</v>
       </c>
-      <c r="J92" t="s">
-        <v>463</v>
-      </c>
       <c r="K92" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L92" s="12"/>
     </row>
@@ -5292,13 +5295,13 @@
       </c>
       <c r="F93" s="3"/>
       <c r="I93" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J93" t="s">
         <v>438</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L93" s="12"/>
     </row>
@@ -5350,10 +5353,10 @@
         <v>314</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L96" s="12"/>
     </row>
@@ -5371,7 +5374,7 @@
       </c>
       <c r="F97" s="3"/>
       <c r="K97" s="12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L97" s="12"/>
     </row>
@@ -5390,10 +5393,10 @@
         <v>315</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L98" s="12"/>
     </row>
@@ -5415,7 +5418,7 @@
         <v>438</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L99" s="12"/>
     </row>
@@ -5439,7 +5442,7 @@
         <v>438</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L100" s="12"/>
     </row>
@@ -5461,7 +5464,7 @@
         <v>438</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L101" s="12"/>
     </row>
@@ -5485,7 +5488,7 @@
         <v>438</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L102" s="12"/>
     </row>
@@ -5509,7 +5512,7 @@
         <v>438</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L103" s="12"/>
     </row>
@@ -5550,7 +5553,7 @@
         <v>438</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L105" s="12"/>
     </row>
@@ -5573,10 +5576,10 @@
         <v>314</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L106" s="12"/>
     </row>
@@ -5596,7 +5599,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="12" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L107" s="12"/>
     </row>
@@ -5617,10 +5620,10 @@
         <v>324</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L108" s="12"/>
     </row>
@@ -5645,7 +5648,7 @@
         <v>438</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L109" s="12"/>
     </row>
@@ -5662,7 +5665,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="K110" s="12" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L110" s="12"/>
     </row>
@@ -5676,7 +5679,7 @@
         <v>390</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L111" s="12"/>
     </row>
@@ -5696,10 +5699,10 @@
         <v>326</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L112" s="12"/>
     </row>
@@ -5724,7 +5727,7 @@
         <v>438</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L113" s="12"/>
     </row>
@@ -5763,7 +5766,7 @@
         <v>438</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L115" s="12"/>
     </row>
@@ -5786,10 +5789,10 @@
         <v>314</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L116" s="12"/>
     </row>
@@ -5809,7 +5812,7 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="12" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L117" s="12"/>
     </row>
@@ -5830,10 +5833,10 @@
         <v>324</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L118" s="12"/>
     </row>
@@ -5858,7 +5861,7 @@
         <v>438</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L119" s="12"/>
     </row>
@@ -5875,7 +5878,7 @@
       </c>
       <c r="F120" s="3"/>
       <c r="K120" s="12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L120" s="12"/>
     </row>
@@ -5889,7 +5892,7 @@
         <v>390</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L121" s="12"/>
     </row>
@@ -5909,10 +5912,10 @@
         <v>326</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L122" s="12"/>
     </row>
@@ -5937,7 +5940,7 @@
         <v>438</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L123" s="12"/>
     </row>
@@ -5991,10 +5994,10 @@
         <v>334</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L126" s="12"/>
     </row>
@@ -6017,10 +6020,10 @@
         <v>335</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L127" s="12"/>
     </row>
@@ -6040,7 +6043,7 @@
       <c r="I128" s="11"/>
       <c r="J128" s="11"/>
       <c r="K128" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L128" s="12"/>
     </row>
@@ -6064,7 +6067,7 @@
         <v>438</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L129" s="12"/>
     </row>
@@ -6088,7 +6091,7 @@
         <v>438</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L130" s="12"/>
     </row>
@@ -6112,7 +6115,7 @@
         <v>438</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L131" s="12"/>
     </row>
@@ -6136,7 +6139,7 @@
         <v>438</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L132" s="12"/>
     </row>
@@ -6160,7 +6163,7 @@
         <v>438</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L133" s="12"/>
     </row>
@@ -6184,7 +6187,7 @@
         <v>438</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L134" s="12"/>
     </row>
@@ -6208,7 +6211,7 @@
         <v>438</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L135" s="12"/>
     </row>
@@ -6224,7 +6227,7 @@
       </c>
       <c r="F136" s="3"/>
       <c r="H136" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
@@ -6249,7 +6252,7 @@
         <v>438</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L137" s="12"/>
     </row>
@@ -6279,7 +6282,7 @@
       </c>
       <c r="F139" s="3"/>
       <c r="H139" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
@@ -6303,10 +6306,10 @@
         <v>345</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>580</v>
+        <v>722</v>
       </c>
       <c r="L140" s="12"/>
     </row>
@@ -6327,10 +6330,10 @@
         <v>346</v>
       </c>
       <c r="J141" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L141" s="12"/>
     </row>
@@ -6354,7 +6357,7 @@
         <v>438</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L142" s="12"/>
     </row>
@@ -6378,7 +6381,7 @@
         <v>438</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L143" s="12"/>
     </row>
@@ -6402,7 +6405,7 @@
         <v>438</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L144" s="12"/>
     </row>
@@ -6426,7 +6429,7 @@
         <v>438</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L145" s="12"/>
     </row>
@@ -6450,7 +6453,7 @@
         <v>438</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L146" s="12"/>
     </row>
@@ -6474,7 +6477,7 @@
         <v>438</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L147" s="12"/>
     </row>
@@ -6490,7 +6493,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="H148" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -6512,13 +6515,13 @@
       <c r="F149" s="3"/>
       <c r="H149" s="12"/>
       <c r="I149" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="K149" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="K149" s="12" t="s">
-        <v>471</v>
       </c>
       <c r="L149" s="12"/>
     </row>
@@ -6538,16 +6541,16 @@
       </c>
       <c r="F150" s="3"/>
       <c r="H150" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="I150" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>438</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L150" s="12"/>
     </row>
@@ -6568,13 +6571,13 @@
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>438</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L151" s="12"/>
     </row>
@@ -6586,16 +6589,16 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="H152" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>438</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L152" s="12"/>
     </row>
@@ -6660,13 +6663,13 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="I156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J156" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L156" s="12"/>
     </row>
@@ -6684,13 +6687,13 @@
       </c>
       <c r="F157" s="3"/>
       <c r="I157" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J157" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L157" s="12"/>
     </row>
@@ -6708,7 +6711,7 @@
       </c>
       <c r="F158" s="3"/>
       <c r="K158" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L158" s="12"/>
     </row>
@@ -6723,7 +6726,7 @@
         <v>390</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>482</v>
+        <v>726</v>
       </c>
       <c r="L159" s="12"/>
     </row>
@@ -6741,13 +6744,13 @@
       </c>
       <c r="F160" s="3"/>
       <c r="I160" t="s">
+        <v>461</v>
+      </c>
+      <c r="J160" t="s">
         <v>462</v>
       </c>
-      <c r="J160" t="s">
-        <v>463</v>
-      </c>
       <c r="K160" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L160" s="12"/>
     </row>
@@ -6765,13 +6768,13 @@
       </c>
       <c r="F161" s="3"/>
       <c r="I161" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J161" t="s">
         <v>438</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L161" s="12"/>
     </row>
@@ -6823,10 +6826,10 @@
         <v>314</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L164" s="12"/>
     </row>
@@ -6844,7 +6847,7 @@
       </c>
       <c r="F165" s="3"/>
       <c r="K165" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L165" s="12"/>
     </row>
@@ -6863,10 +6866,10 @@
         <v>315</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K166" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L166" s="12"/>
     </row>
@@ -6888,7 +6891,7 @@
         <v>438</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L167" s="12"/>
     </row>
@@ -6912,7 +6915,7 @@
         <v>438</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L168" s="12"/>
     </row>
@@ -6934,7 +6937,7 @@
         <v>438</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L169" s="12"/>
     </row>
@@ -6958,7 +6961,7 @@
         <v>438</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L170" s="12"/>
     </row>
@@ -6982,7 +6985,7 @@
         <v>438</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L171" s="12"/>
     </row>
@@ -7023,7 +7026,7 @@
         <v>438</v>
       </c>
       <c r="K173" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L173" s="12"/>
     </row>
@@ -7046,10 +7049,10 @@
         <v>314</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K174" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L174" s="12"/>
     </row>
@@ -7069,7 +7072,7 @@
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L175" s="12"/>
     </row>
@@ -7090,10 +7093,10 @@
         <v>324</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K176" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L176" s="12"/>
     </row>
@@ -7118,7 +7121,7 @@
         <v>438</v>
       </c>
       <c r="K177" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L177" s="12"/>
     </row>
@@ -7135,7 +7138,7 @@
       </c>
       <c r="F178" s="3"/>
       <c r="K178" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L178" s="12"/>
     </row>
@@ -7149,7 +7152,7 @@
         <v>390</v>
       </c>
       <c r="K179" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L179" s="12"/>
     </row>
@@ -7169,10 +7172,10 @@
         <v>326</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K180" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L180" s="12"/>
     </row>
@@ -7197,7 +7200,7 @@
         <v>438</v>
       </c>
       <c r="K181" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L181" s="12"/>
     </row>
@@ -7236,7 +7239,7 @@
         <v>438</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L183" s="12"/>
     </row>
@@ -7259,10 +7262,10 @@
         <v>314</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K184" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L184" s="12"/>
     </row>
@@ -7281,7 +7284,7 @@
       <c r="F185" s="3"/>
       <c r="I185" s="7"/>
       <c r="K185" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L185" s="12"/>
     </row>
@@ -7302,10 +7305,10 @@
         <v>324</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K186" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L186" s="12"/>
     </row>
@@ -7330,7 +7333,7 @@
         <v>438</v>
       </c>
       <c r="K187" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L187" s="12"/>
     </row>
@@ -7347,7 +7350,7 @@
       </c>
       <c r="F188" s="3"/>
       <c r="K188" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L188" s="12"/>
     </row>
@@ -7361,7 +7364,7 @@
         <v>390</v>
       </c>
       <c r="K189" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L189" s="12"/>
     </row>
@@ -7381,10 +7384,10 @@
         <v>326</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K190" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L190" s="12"/>
     </row>
@@ -7409,7 +7412,7 @@
         <v>438</v>
       </c>
       <c r="K191" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L191" s="12"/>
     </row>
@@ -7463,10 +7466,10 @@
         <v>334</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K194" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L194" s="12"/>
     </row>
@@ -7489,10 +7492,10 @@
         <v>335</v>
       </c>
       <c r="J195" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K195" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L195" s="12"/>
     </row>
@@ -7512,7 +7515,7 @@
       <c r="I196" s="11"/>
       <c r="J196" s="11"/>
       <c r="K196" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L196" s="12"/>
     </row>
@@ -7533,10 +7536,10 @@
         <v>336</v>
       </c>
       <c r="J197" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K197" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L197" s="12"/>
     </row>
@@ -7560,7 +7563,7 @@
         <v>438</v>
       </c>
       <c r="K198" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L198" s="12"/>
     </row>
@@ -7584,7 +7587,7 @@
         <v>438</v>
       </c>
       <c r="K199" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L199" s="12"/>
     </row>
@@ -7608,7 +7611,7 @@
         <v>438</v>
       </c>
       <c r="K200" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L200" s="12"/>
     </row>
@@ -7632,7 +7635,7 @@
         <v>438</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L201" s="12"/>
     </row>
@@ -7656,7 +7659,7 @@
         <v>438</v>
       </c>
       <c r="K202" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L202" s="12"/>
     </row>
@@ -7680,7 +7683,7 @@
         <v>438</v>
       </c>
       <c r="K203" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L203" s="12"/>
     </row>
@@ -7721,7 +7724,7 @@
         <v>438</v>
       </c>
       <c r="K205" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L205" s="12"/>
     </row>
@@ -7751,7 +7754,7 @@
       </c>
       <c r="F207" s="3"/>
       <c r="H207" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
@@ -7775,10 +7778,10 @@
         <v>345</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K208" s="12" t="s">
-        <v>528</v>
+        <v>723</v>
       </c>
       <c r="L208" s="12"/>
     </row>
@@ -7799,10 +7802,10 @@
         <v>346</v>
       </c>
       <c r="J209" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K209" s="12" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L209" s="12"/>
     </row>
@@ -7826,7 +7829,7 @@
         <v>438</v>
       </c>
       <c r="K210" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L210" s="12"/>
     </row>
@@ -7850,7 +7853,7 @@
         <v>438</v>
       </c>
       <c r="K211" s="12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L211" s="12"/>
     </row>
@@ -7874,7 +7877,7 @@
         <v>438</v>
       </c>
       <c r="K212" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L212" s="12"/>
     </row>
@@ -7898,7 +7901,7 @@
         <v>438</v>
       </c>
       <c r="K213" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L213" s="12"/>
     </row>
@@ -7922,7 +7925,7 @@
         <v>438</v>
       </c>
       <c r="K214" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L214" s="12"/>
     </row>
@@ -7946,7 +7949,7 @@
         <v>438</v>
       </c>
       <c r="K215" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L215" s="12"/>
     </row>
@@ -8017,13 +8020,13 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="I219" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J219" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K219" s="12" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L219" s="12"/>
     </row>
@@ -8041,13 +8044,13 @@
       </c>
       <c r="F220" s="3"/>
       <c r="I220" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J220" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K220" s="12" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L220" s="12"/>
     </row>
@@ -8065,7 +8068,7 @@
       </c>
       <c r="F221" s="3"/>
       <c r="K221" s="12" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L221" s="12"/>
     </row>
@@ -8080,7 +8083,7 @@
         <v>390</v>
       </c>
       <c r="K222" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L222" s="12"/>
     </row>
@@ -8098,13 +8101,13 @@
       </c>
       <c r="F223" s="3"/>
       <c r="I223" t="s">
+        <v>461</v>
+      </c>
+      <c r="J223" t="s">
         <v>462</v>
       </c>
-      <c r="J223" t="s">
-        <v>463</v>
-      </c>
       <c r="K223" s="12" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="L223" s="12"/>
     </row>
@@ -8122,13 +8125,13 @@
       </c>
       <c r="F224" s="3"/>
       <c r="I224" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J224" t="s">
         <v>438</v>
       </c>
       <c r="K224" s="12" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L224" s="12"/>
     </row>
@@ -8180,10 +8183,10 @@
         <v>314</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K227" s="12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L227" s="12"/>
     </row>
@@ -8201,7 +8204,7 @@
       </c>
       <c r="F228" s="3"/>
       <c r="K228" s="12" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L228" s="12"/>
     </row>
@@ -8220,10 +8223,10 @@
         <v>315</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K229" s="12" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L229" s="12"/>
     </row>
@@ -8245,7 +8248,7 @@
         <v>438</v>
       </c>
       <c r="K230" s="12" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L230" s="12"/>
     </row>
@@ -8269,7 +8272,7 @@
         <v>438</v>
       </c>
       <c r="K231" s="12" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L231" s="12"/>
     </row>
@@ -8291,7 +8294,7 @@
         <v>438</v>
       </c>
       <c r="K232" s="12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L232" s="12"/>
     </row>
@@ -8315,7 +8318,7 @@
         <v>438</v>
       </c>
       <c r="K233" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L233" s="12"/>
     </row>
@@ -8339,7 +8342,7 @@
         <v>438</v>
       </c>
       <c r="K234" s="12" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L234" s="12"/>
     </row>
@@ -8380,7 +8383,7 @@
         <v>438</v>
       </c>
       <c r="K236" s="12" t="s">
-        <v>610</v>
+        <v>725</v>
       </c>
       <c r="L236" s="12"/>
     </row>
@@ -8403,10 +8406,10 @@
         <v>314</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K237" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="L237" s="12"/>
     </row>
@@ -8426,7 +8429,7 @@
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
       <c r="K238" s="12" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L238" s="12"/>
     </row>
@@ -8447,10 +8450,10 @@
         <v>324</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K239" s="12" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="L239" s="12"/>
     </row>
@@ -8475,7 +8478,7 @@
         <v>438</v>
       </c>
       <c r="K240" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L240" s="12"/>
     </row>
@@ -8492,7 +8495,7 @@
       </c>
       <c r="F241" s="3"/>
       <c r="K241" s="12" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="L241" s="12"/>
     </row>
@@ -8506,7 +8509,7 @@
         <v>390</v>
       </c>
       <c r="K242" s="12" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L242" s="12"/>
     </row>
@@ -8526,10 +8529,10 @@
         <v>326</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K243" s="12" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L243" s="12"/>
     </row>
@@ -8554,7 +8557,7 @@
         <v>438</v>
       </c>
       <c r="K244" s="12" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="L244" s="12"/>
     </row>
@@ -8593,7 +8596,7 @@
         <v>438</v>
       </c>
       <c r="K246" s="12" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L246" s="12"/>
     </row>
@@ -8616,10 +8619,10 @@
         <v>314</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K247" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="L247" s="12"/>
     </row>
@@ -8639,7 +8642,7 @@
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
       <c r="K248" s="12" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L248" s="12"/>
     </row>
@@ -8660,10 +8663,10 @@
         <v>324</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K249" s="12" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="L249" s="12"/>
     </row>
@@ -8685,10 +8688,10 @@
         <v>325</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K250" s="12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L250" s="12"/>
     </row>
@@ -8705,7 +8708,7 @@
       </c>
       <c r="F251" s="3"/>
       <c r="K251" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L251" s="12"/>
     </row>
@@ -8719,7 +8722,7 @@
         <v>390</v>
       </c>
       <c r="K252" s="12" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L252" s="12"/>
     </row>
@@ -8742,7 +8745,7 @@
         <v>391</v>
       </c>
       <c r="K253" s="12" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="L253" s="12"/>
     </row>
@@ -8764,10 +8767,10 @@
         <v>327</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K254" s="12" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="L254" s="12"/>
     </row>
@@ -8821,10 +8824,10 @@
         <v>334</v>
       </c>
       <c r="J257" s="11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="K257" s="12" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L257" s="12"/>
     </row>
@@ -8847,10 +8850,10 @@
         <v>335</v>
       </c>
       <c r="J258" s="11" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="K258" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L258" s="12"/>
     </row>
@@ -8870,7 +8873,7 @@
       <c r="I259" s="11"/>
       <c r="J259" s="11"/>
       <c r="K259" s="12" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="L259" s="12"/>
     </row>
@@ -8891,10 +8894,10 @@
         <v>336</v>
       </c>
       <c r="J260" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K260" s="12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="L260" s="12"/>
     </row>
@@ -8915,10 +8918,10 @@
         <v>337</v>
       </c>
       <c r="J261" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K261" s="12" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="L261" s="12"/>
     </row>
@@ -8939,10 +8942,10 @@
         <v>338</v>
       </c>
       <c r="J262" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K262" s="12" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L262" s="12"/>
     </row>
@@ -8963,10 +8966,10 @@
         <v>339</v>
       </c>
       <c r="J263" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K263" s="12" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L263" s="12"/>
     </row>
@@ -8987,10 +8990,10 @@
         <v>340</v>
       </c>
       <c r="J264" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K264" s="12" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="L264" s="12"/>
     </row>
@@ -9011,10 +9014,10 @@
         <v>341</v>
       </c>
       <c r="J265" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="K265" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="K265" s="12" t="s">
-        <v>640</v>
       </c>
       <c r="L265" s="12"/>
     </row>
@@ -9035,10 +9038,10 @@
         <v>342</v>
       </c>
       <c r="J266" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K266" s="12" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L266" s="12"/>
     </row>
@@ -9076,10 +9079,10 @@
         <v>344</v>
       </c>
       <c r="J268" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K268" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L268" s="12"/>
     </row>
@@ -9133,10 +9136,10 @@
         <v>345</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="K271" s="12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L271" s="12"/>
     </row>
@@ -9157,10 +9160,10 @@
         <v>346</v>
       </c>
       <c r="J272" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K272" s="12" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="L272" s="12"/>
     </row>
@@ -9181,10 +9184,10 @@
         <v>347</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K273" s="12" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L273" s="12"/>
     </row>
@@ -9205,10 +9208,10 @@
         <v>348</v>
       </c>
       <c r="J274" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K274" s="12" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="L274" s="12"/>
     </row>
@@ -9229,10 +9232,10 @@
         <v>349</v>
       </c>
       <c r="J275" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K275" s="12" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="L275" s="12"/>
     </row>
@@ -9253,10 +9256,10 @@
         <v>350</v>
       </c>
       <c r="J276" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K276" s="12" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L276" s="12"/>
     </row>
@@ -9277,10 +9280,10 @@
         <v>351</v>
       </c>
       <c r="J277" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K277" s="12" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L277" s="12"/>
     </row>
@@ -9301,10 +9304,10 @@
         <v>352</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K278" s="12" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L278" s="12"/>
     </row>
@@ -9359,10 +9362,10 @@
         <v>359</v>
       </c>
       <c r="J281" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="K281" s="12" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="L281" s="12"/>
     </row>
@@ -9380,7 +9383,7 @@
       </c>
       <c r="F282" s="3"/>
       <c r="K282" s="12" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="L282" s="12"/>
     </row>
@@ -9398,7 +9401,7 @@
       </c>
       <c r="F283" s="3"/>
       <c r="K283" s="12" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="L283" s="12"/>
     </row>
@@ -9413,7 +9416,7 @@
         <v>390</v>
       </c>
       <c r="K284" s="12" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="L284" s="12"/>
     </row>
@@ -9527,10 +9530,10 @@
         <v>360</v>
       </c>
       <c r="J291" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="K291" s="12" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="L291" s="12"/>
     </row>
@@ -9548,7 +9551,7 @@
       </c>
       <c r="F292" s="3"/>
       <c r="K292" s="12" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="L292" s="12"/>
     </row>
@@ -9569,10 +9572,10 @@
         <v>361</v>
       </c>
       <c r="J293" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="K293" s="12" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="L293" s="12"/>
     </row>
@@ -9593,10 +9596,10 @@
         <v>362</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="K294" s="12" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L294" s="12"/>
     </row>
@@ -9619,10 +9622,10 @@
         <v>363</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K295" s="12" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L295" s="12"/>
     </row>
@@ -9643,10 +9646,10 @@
         <v>364</v>
       </c>
       <c r="J296" s="9" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="K296" s="12" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="L296" s="12"/>
     </row>
@@ -9681,10 +9684,10 @@
         <v>365</v>
       </c>
       <c r="J298" s="9" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="K298" s="12" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="L298" s="12"/>
     </row>
@@ -9702,7 +9705,7 @@
       </c>
       <c r="F299" s="3"/>
       <c r="H299" s="12" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I299" s="12"/>
       <c r="J299" s="12"/>
@@ -9725,10 +9728,10 @@
       <c r="H300" s="12"/>
       <c r="I300" s="12"/>
       <c r="J300" s="12" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="K300" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="L300" s="12"/>
     </row>
@@ -9748,10 +9751,10 @@
       <c r="H301" s="12"/>
       <c r="I301" s="12"/>
       <c r="J301" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="K301" s="12" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="L301" s="12"/>
     </row>
@@ -9796,13 +9799,13 @@
         <v>292</v>
       </c>
       <c r="I303" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J303" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K303" s="12" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="L303" s="12"/>
     </row>
@@ -9828,10 +9831,10 @@
         <v>294</v>
       </c>
       <c r="J304" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K304" s="12" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="L304" s="12"/>
     </row>
@@ -9857,10 +9860,10 @@
         <v>299</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K305" s="12" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="L305" s="12"/>
     </row>
@@ -9886,10 +9889,10 @@
         <v>297</v>
       </c>
       <c r="J306" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K306" s="12" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="L306" s="12"/>
     </row>
@@ -9907,7 +9910,7 @@
       </c>
       <c r="F307" s="3"/>
       <c r="H307" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
@@ -9918,7 +9921,7 @@
       <c r="A308" s="3"/>
       <c r="B308" s="21"/>
       <c r="C308" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>8</v>
@@ -9928,13 +9931,13 @@
       </c>
       <c r="F308" s="3"/>
       <c r="I308" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J308" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K308" s="12" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="L308" s="12"/>
     </row>
@@ -9942,7 +9945,7 @@
       <c r="A309" s="3"/>
       <c r="B309" s="21"/>
       <c r="C309" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>8</v>
@@ -9955,10 +9958,10 @@
         <v>198</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K309" s="12" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="L309" s="12"/>
     </row>
@@ -9966,7 +9969,7 @@
       <c r="A310" s="3"/>
       <c r="B310" s="23"/>
       <c r="C310" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>8</v>
@@ -9976,20 +9979,20 @@
       </c>
       <c r="F310" s="3"/>
       <c r="I310" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J310" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K310" s="12" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L310" s="12"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311" s="3"/>
       <c r="C311" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>8</v>
@@ -9999,13 +10002,13 @@
       </c>
       <c r="F311" s="3"/>
       <c r="I311" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K311" s="12" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="L311" s="12"/>
     </row>
@@ -10050,10 +10053,10 @@
         <v>301</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K313" s="12" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="L313" s="12"/>
     </row>
@@ -10074,10 +10077,10 @@
         <v>366</v>
       </c>
       <c r="J314" s="4" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K314" s="12" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="L314" s="12"/>
     </row>
@@ -10095,7 +10098,7 @@
       </c>
       <c r="F315" s="3"/>
       <c r="H315" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="12"/>
@@ -10106,7 +10109,7 @@
       <c r="A316" s="3"/>
       <c r="B316" s="21"/>
       <c r="C316" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>8</v>
@@ -10116,13 +10119,13 @@
       </c>
       <c r="F316" s="3"/>
       <c r="I316" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J316" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K316" s="12" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="L316" s="12"/>
     </row>
@@ -10130,7 +10133,7 @@
       <c r="A317" s="3"/>
       <c r="B317" s="21"/>
       <c r="C317" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>8</v>
@@ -10143,10 +10146,10 @@
         <v>198</v>
       </c>
       <c r="J317" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K317" s="12" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="L317" s="12"/>
     </row>
@@ -10154,7 +10157,7 @@
       <c r="A318" s="3"/>
       <c r="B318" s="23"/>
       <c r="C318" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>8</v>
@@ -10164,13 +10167,13 @@
       </c>
       <c r="F318" s="3"/>
       <c r="I318" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J318" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K318" s="12" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="L318" s="12"/>
     </row>
@@ -10178,7 +10181,7 @@
       <c r="A319" s="3"/>
       <c r="B319" s="22"/>
       <c r="C319" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>8</v>
@@ -10188,13 +10191,13 @@
       </c>
       <c r="F319" s="3"/>
       <c r="I319" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J319" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K319" s="12" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L319" s="12"/>
     </row>
@@ -10217,13 +10220,13 @@
         <v>302</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J320" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K320" s="12" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L320" s="12"/>
     </row>
@@ -10247,10 +10250,10 @@
         <v>198</v>
       </c>
       <c r="J321" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K321" s="12" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="L321" s="12"/>
     </row>
@@ -10270,16 +10273,16 @@
       </c>
       <c r="F322" s="3"/>
       <c r="H322" s="12" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="I322" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J322" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K322" s="12" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="L322" s="12"/>
     </row>
@@ -10308,7 +10311,7 @@
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>8</v>
@@ -10319,13 +10322,13 @@
       <c r="F324" s="8"/>
       <c r="G324" s="19"/>
       <c r="I324" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J324" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K324" s="12" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="L324" s="12"/>
     </row>
@@ -10333,7 +10336,7 @@
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>8</v>
@@ -10347,10 +10350,10 @@
         <v>198</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K325" s="12" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="L325" s="12"/>
     </row>
@@ -10358,7 +10361,7 @@
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>8</v>
@@ -10369,13 +10372,13 @@
       <c r="F326" s="8"/>
       <c r="G326" s="19"/>
       <c r="I326" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J326" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K326" s="12" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L326" s="12"/>
     </row>
@@ -10383,7 +10386,7 @@
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>8</v>
@@ -10394,13 +10397,13 @@
       <c r="F327" s="8"/>
       <c r="G327" s="19"/>
       <c r="I327" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J327" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K327" s="12" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="L327" s="12"/>
     </row>
@@ -10439,10 +10442,10 @@
         <v>368</v>
       </c>
       <c r="J329" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K329" s="12" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="L329" s="12"/>
     </row>
@@ -10471,7 +10474,7 @@
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>8</v>
@@ -10482,20 +10485,20 @@
       <c r="F331" s="8"/>
       <c r="G331" s="19"/>
       <c r="I331" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J331" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K331" s="12" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>8</v>
@@ -10509,17 +10512,17 @@
         <v>198</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K332" s="12" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>8</v>
@@ -10530,20 +10533,20 @@
       <c r="F333" s="8"/>
       <c r="G333" s="19"/>
       <c r="I333" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K333" s="12" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>8</v>
@@ -10554,13 +10557,13 @@
       <c r="F334" s="8"/>
       <c r="G334" s="19"/>
       <c r="I334" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J334" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K334" s="12" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.15">
@@ -10604,10 +10607,10 @@
         <v>370</v>
       </c>
       <c r="J336" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K336" s="12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="L336" s="12"/>
     </row>
@@ -10626,13 +10629,13 @@
       <c r="F337" s="3"/>
       <c r="H337" s="12"/>
       <c r="I337" s="12" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="J337" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="K337" s="12" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="L337" s="12"/>
     </row>
@@ -10661,7 +10664,7 @@
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>8</v>
@@ -10672,13 +10675,13 @@
       <c r="F339" s="8"/>
       <c r="G339" s="19"/>
       <c r="I339" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J339" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K339" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="L339" s="12"/>
     </row>
@@ -10686,7 +10689,7 @@
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>8</v>
@@ -10700,10 +10703,10 @@
         <v>198</v>
       </c>
       <c r="J340" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K340" s="12" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="L340" s="12"/>
     </row>
@@ -10711,7 +10714,7 @@
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>8</v>
@@ -10722,13 +10725,13 @@
       <c r="F341" s="8"/>
       <c r="G341" s="19"/>
       <c r="I341" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J341" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K341" s="12" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="L341" s="12"/>
     </row>
@@ -10736,7 +10739,7 @@
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>8</v>
@@ -10747,13 +10750,13 @@
       <c r="F342" s="8"/>
       <c r="G342" s="19"/>
       <c r="I342" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J342" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K342" s="12" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="L342" s="12"/>
     </row>
@@ -10779,10 +10782,10 @@
         <v>198</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K343" s="12" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="L343" s="12"/>
     </row>
@@ -10811,7 +10814,7 @@
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>8</v>
@@ -10822,13 +10825,13 @@
       <c r="F345" s="8"/>
       <c r="G345" s="19"/>
       <c r="I345" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J345" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K345" s="12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="L345" s="12"/>
     </row>
@@ -10836,7 +10839,7 @@
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>8</v>
@@ -10850,10 +10853,10 @@
         <v>198</v>
       </c>
       <c r="J346" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K346" s="12" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="L346" s="12"/>
     </row>
@@ -10861,7 +10864,7 @@
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>8</v>
@@ -10872,13 +10875,13 @@
       <c r="F347" s="8"/>
       <c r="G347" s="19"/>
       <c r="I347" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J347" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K347" s="12" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="L347" s="12"/>
     </row>
@@ -10886,7 +10889,7 @@
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>8</v>
@@ -10897,13 +10900,13 @@
       <c r="F348" s="8"/>
       <c r="G348" s="19"/>
       <c r="I348" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J348" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K348" s="12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="L348" s="12"/>
     </row>
@@ -10929,10 +10932,10 @@
         <v>303</v>
       </c>
       <c r="J349" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K349" s="12" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="L349" s="12"/>
     </row>
@@ -10943,12 +10946,12 @@
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C353" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C354" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="486" spans="2:10" x14ac:dyDescent="0.15">

--- a/mapping/mml_summary_mapping.xlsx
+++ b/mapping/mml_summary_mapping.xlsx
@@ -3260,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D313" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K337" sqref="K337"/>
     </sheetView>
   </sheetViews>
